--- a/exercise/markov_exercise_phd.xlsx
+++ b/exercise/markov_exercise_phd.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/astridyu/Documents/GitHub/MarkovDA/exercise/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A209CE3F-93E6-6B48-9FC6-FD4B45C7E7C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AE1AFAC-9E39-A840-9779-BF7800E76C42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18660" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -2325,7 +2325,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="239">
+  <cellXfs count="240">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2695,6 +2695,38 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="8" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2721,6 +2753,15 @@
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2767,15 +2808,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2803,36 +2835,7 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="26" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="27" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="28" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="41" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="8" borderId="29" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="30" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="43" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="31" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5282,7 +5285,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="141" workbookViewId="0">
+    <sheetView zoomScale="141" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J28" sqref="J28"/>
     </sheetView>
@@ -5325,7 +5328,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="16" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="209" t="s">
         <v>82</v>
       </c>
       <c r="B2" s="51" t="s">
@@ -5343,7 +5346,7 @@
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="189"/>
+      <c r="A3" s="207"/>
       <c r="B3" s="1" t="s">
         <v>238</v>
       </c>
@@ -5358,7 +5361,7 @@
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="189"/>
+      <c r="A4" s="207"/>
       <c r="B4" s="1" t="s">
         <v>235</v>
       </c>
@@ -5373,7 +5376,7 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="189"/>
+      <c r="A5" s="207"/>
       <c r="B5" s="1" t="s">
         <v>154</v>
       </c>
@@ -5388,7 +5391,7 @@
       <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="190"/>
+      <c r="A6" s="208"/>
       <c r="B6" s="41" t="s">
         <v>78</v>
       </c>
@@ -5404,7 +5407,7 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="185" t="s">
+      <c r="A7" s="203" t="s">
         <v>83</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -5422,7 +5425,7 @@
       <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="186"/>
+      <c r="A8" s="204"/>
       <c r="B8" s="1" t="s">
         <v>28</v>
       </c>
@@ -5437,7 +5440,7 @@
       <c r="H8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="186"/>
+      <c r="A9" s="204"/>
       <c r="B9" s="1" t="s">
         <v>29</v>
       </c>
@@ -5452,7 +5455,7 @@
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="186"/>
+      <c r="A10" s="204"/>
       <c r="B10" s="1" t="s">
         <v>32</v>
       </c>
@@ -5467,7 +5470,7 @@
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="186"/>
+      <c r="A11" s="204"/>
       <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
@@ -5482,7 +5485,7 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="186"/>
+      <c r="A12" s="204"/>
       <c r="B12" s="1" t="s">
         <v>36</v>
       </c>
@@ -5498,7 +5501,7 @@
       <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="186"/>
+      <c r="A13" s="204"/>
       <c r="B13" s="1" t="s">
         <v>37</v>
       </c>
@@ -5511,16 +5514,16 @@
         <v>40</v>
       </c>
       <c r="H13" s="1"/>
-      <c r="I13" s="221"/>
-      <c r="J13" s="221"/>
-      <c r="K13" s="221"/>
-      <c r="L13" s="221"/>
-      <c r="M13" s="221" t="s">
+      <c r="I13" s="185"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="185"/>
+      <c r="L13" s="185"/>
+      <c r="M13" s="185" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="186"/>
+      <c r="A14" s="204"/>
       <c r="B14" s="1" t="s">
         <v>38</v>
       </c>
@@ -5533,20 +5536,20 @@
         <v>41</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="222"/>
-      <c r="J14" s="222"/>
-      <c r="K14" s="222" t="s">
+      <c r="I14" s="186"/>
+      <c r="J14" s="186"/>
+      <c r="K14" s="186" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="222" t="s">
+      <c r="L14" s="186" t="s">
         <v>152</v>
       </c>
-      <c r="M14" s="221" t="s">
+      <c r="M14" s="185" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+      <c r="A15" s="204"/>
       <c r="B15" s="1" t="s">
         <v>42</v>
       </c>
@@ -5559,24 +5562,24 @@
         <v>44</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="222" t="s">
+      <c r="I15" s="186" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="223"/>
-      <c r="K15" s="224">
+      <c r="J15" s="187"/>
+      <c r="K15" s="188">
         <f>D16</f>
         <v>0.35</v>
       </c>
-      <c r="L15" s="225">
+      <c r="L15" s="189">
         <f>E16</f>
         <v>0.5</v>
       </c>
-      <c r="M15" s="226">
+      <c r="M15" s="190">
         <v>0.26976</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="186"/>
+      <c r="A16" s="204"/>
       <c r="B16" s="1" t="s">
         <v>43</v>
       </c>
@@ -5593,26 +5596,26 @@
         <v>45</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="222" t="s">
+      <c r="I16" s="186" t="s">
         <v>19</v>
       </c>
-      <c r="J16" s="227">
+      <c r="J16" s="191">
         <f>('Strategy 2 - Treatment A'!W34-'Strategy 1 - Status quo'!W34)/('Strategy 2 - Treatment A'!X34-'Strategy 1 - Status quo'!X34)</f>
         <v>75173.972694971962</v>
       </c>
-      <c r="K16" s="228">
+      <c r="K16" s="192">
         <f t="dataTable" ref="K16:M17" dt2D="0" dtr="1" r1="F16"/>
         <v>76001.343413274924</v>
       </c>
-      <c r="L16" s="229">
+      <c r="L16" s="193">
         <v>74864.766072870014</v>
       </c>
-      <c r="M16" s="230">
+      <c r="M16" s="194">
         <v>76989.150282737217</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
+      <c r="A17" s="204"/>
       <c r="B17" s="1" t="s">
         <v>46</v>
       </c>
@@ -5625,25 +5628,25 @@
         <v>48</v>
       </c>
       <c r="H17" s="1"/>
-      <c r="I17" s="222" t="s">
+      <c r="I17" s="186" t="s">
         <v>153</v>
       </c>
-      <c r="J17" s="227">
+      <c r="J17" s="191">
         <f>'Strategy 2 - Treatment A'!X34*wtp-'Strategy 2 - Treatment A'!W34</f>
         <v>5058725.9239503294</v>
       </c>
-      <c r="K17" s="231">
+      <c r="K17" s="195">
         <v>2767857.6025438756</v>
       </c>
-      <c r="L17" s="232">
+      <c r="L17" s="196">
         <v>5909902.2168179899</v>
       </c>
-      <c r="M17" s="233">
+      <c r="M17" s="197">
         <v>219.37992015480995</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="186"/>
+      <c r="A18" s="204"/>
       <c r="B18" s="1" t="s">
         <v>47</v>
       </c>
@@ -5656,14 +5659,14 @@
         <v>49</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="221"/>
-      <c r="J18" s="221"/>
-      <c r="K18" s="221"/>
-      <c r="L18" s="221"/>
-      <c r="M18" s="221"/>
+      <c r="I18" s="185"/>
+      <c r="J18" s="185"/>
+      <c r="K18" s="185"/>
+      <c r="L18" s="185"/>
+      <c r="M18" s="185"/>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="186"/>
+      <c r="A19" s="204"/>
       <c r="B19" s="1" t="s">
         <v>94</v>
       </c>
@@ -5676,24 +5679,24 @@
         <v>86</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="234" t="s">
+      <c r="I19" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="J19" s="235"/>
-      <c r="K19" s="236">
+      <c r="J19" s="199"/>
+      <c r="K19" s="200">
         <f>D52</f>
         <v>8000</v>
       </c>
-      <c r="L19" s="237">
+      <c r="L19" s="201">
         <f>E52</f>
         <v>10500</v>
       </c>
-      <c r="M19" s="238">
+      <c r="M19" s="202">
         <v>10869.38</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="186"/>
+      <c r="A20" s="204"/>
       <c r="B20" s="1" t="s">
         <v>96</v>
       </c>
@@ -5706,26 +5709,26 @@
         <v>87</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="234" t="s">
+      <c r="I20" s="198" t="s">
         <v>19</v>
       </c>
-      <c r="J20" s="227">
+      <c r="J20" s="191">
         <f>('Strategy 2 - Treatment A'!W34-'Strategy 1 - Status quo'!W34)/('Strategy 2 - Treatment A'!X34-'Strategy 1 - Status quo'!X34)</f>
         <v>75173.972694971962</v>
       </c>
-      <c r="K20" s="228">
+      <c r="K20" s="192">
         <f t="dataTable" ref="K20:M21" dt2D="0" dtr="1" r1="F52" ca="1"/>
         <v>57410.500160241631</v>
       </c>
-      <c r="L20" s="229">
+      <c r="L20" s="193">
         <v>79614.840828654575</v>
       </c>
-      <c r="M20" s="230">
+      <c r="M20" s="194">
         <v>82895.576571093887</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="186"/>
+      <c r="A21" s="204"/>
       <c r="B21" s="1" t="s">
         <v>97</v>
       </c>
@@ -5738,25 +5741,25 @@
         <v>88</v>
       </c>
       <c r="H21" s="1"/>
-      <c r="I21" s="234" t="s">
+      <c r="I21" s="198" t="s">
         <v>153</v>
       </c>
-      <c r="J21" s="227">
+      <c r="J21" s="191">
         <f>'Strategy 2 - Treatment A'!X34*wtp-'Strategy 2 - Treatment A'!W34</f>
         <v>5058725.9239503294</v>
       </c>
-      <c r="K21" s="231">
+      <c r="K21" s="195">
         <v>16696296.95388741</v>
       </c>
-      <c r="L21" s="232">
+      <c r="L21" s="196">
         <v>2149333.1664660424</v>
       </c>
-      <c r="M21" s="233">
+      <c r="M21" s="197">
         <v>-9.8270530104637146</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="186"/>
+      <c r="A22" s="204"/>
       <c r="B22" s="1" t="s">
         <v>95</v>
       </c>
@@ -5772,7 +5775,7 @@
       <c r="I22" s="1"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="186"/>
+      <c r="A23" s="204"/>
       <c r="B23" s="1" t="s">
         <v>98</v>
       </c>
@@ -5788,7 +5791,7 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="187"/>
+      <c r="A24" s="205"/>
       <c r="B24" s="41" t="s">
         <v>99</v>
       </c>
@@ -5805,7 +5808,7 @@
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="185" t="s">
+      <c r="A25" s="203" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="39" t="s">
@@ -5825,7 +5828,7 @@
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="186"/>
+      <c r="A26" s="204"/>
       <c r="B26" s="1" t="s">
         <v>106</v>
       </c>
@@ -5842,7 +5845,7 @@
       <c r="I26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="186"/>
+      <c r="A27" s="204"/>
       <c r="B27" s="1" t="s">
         <v>107</v>
       </c>
@@ -5859,7 +5862,7 @@
       <c r="I27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="186"/>
+      <c r="A28" s="204"/>
       <c r="B28" s="1" t="s">
         <v>108</v>
       </c>
@@ -5876,7 +5879,7 @@
       <c r="I28" s="1"/>
     </row>
     <row r="29" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="186"/>
+      <c r="A29" s="204"/>
       <c r="B29" s="1" t="s">
         <v>109</v>
       </c>
@@ -5893,7 +5896,7 @@
       <c r="I29" s="1"/>
     </row>
     <row r="30" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="186"/>
+      <c r="A30" s="204"/>
       <c r="B30" s="1" t="s">
         <v>111</v>
       </c>
@@ -5910,7 +5913,7 @@
       <c r="I30" s="1"/>
     </row>
     <row r="31" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="186"/>
+      <c r="A31" s="204"/>
       <c r="B31" s="1" t="s">
         <v>112</v>
       </c>
@@ -5927,7 +5930,7 @@
       <c r="I31" s="1"/>
     </row>
     <row r="32" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="186"/>
+      <c r="A32" s="204"/>
       <c r="B32" s="1" t="s">
         <v>110</v>
       </c>
@@ -5943,7 +5946,7 @@
       <c r="I32" s="1"/>
     </row>
     <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="186"/>
+      <c r="A33" s="204"/>
       <c r="B33" s="1" t="s">
         <v>113</v>
       </c>
@@ -5960,7 +5963,7 @@
       <c r="I33" s="1"/>
     </row>
     <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="186"/>
+      <c r="A34" s="204"/>
       <c r="B34" s="1" t="s">
         <v>114</v>
       </c>
@@ -5977,7 +5980,7 @@
       <c r="I34" s="1"/>
     </row>
     <row r="35" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="186"/>
+      <c r="A35" s="204"/>
       <c r="B35" s="1" t="s">
         <v>178</v>
       </c>
@@ -5994,7 +5997,7 @@
       <c r="I35" s="1"/>
     </row>
     <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="186"/>
+      <c r="A36" s="204"/>
       <c r="B36" s="1" t="s">
         <v>179</v>
       </c>
@@ -6011,7 +6014,7 @@
       <c r="I36" s="1"/>
     </row>
     <row r="37" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="186"/>
+      <c r="A37" s="204"/>
       <c r="B37" s="1" t="s">
         <v>115</v>
       </c>
@@ -6028,7 +6031,7 @@
       <c r="I37" s="1"/>
     </row>
     <row r="38" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="186"/>
+      <c r="A38" s="204"/>
       <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
@@ -6045,7 +6048,7 @@
       <c r="I38" s="1"/>
     </row>
     <row r="39" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="186"/>
+      <c r="A39" s="204"/>
       <c r="B39" s="1" t="s">
         <v>117</v>
       </c>
@@ -6062,7 +6065,7 @@
       <c r="I39" s="1"/>
     </row>
     <row r="40" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="186"/>
+      <c r="A40" s="204"/>
       <c r="B40" s="1" t="s">
         <v>118</v>
       </c>
@@ -6079,7 +6082,7 @@
       <c r="I40" s="1"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A41" s="186"/>
+      <c r="A41" s="204"/>
       <c r="B41" s="1" t="s">
         <v>119</v>
       </c>
@@ -6096,7 +6099,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="187"/>
+      <c r="A42" s="205"/>
       <c r="B42" s="1" t="s">
         <v>120</v>
       </c>
@@ -6113,7 +6116,7 @@
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="188" t="s">
+      <c r="A43" s="206" t="s">
         <v>100</v>
       </c>
       <c r="B43" s="39" t="s">
@@ -6132,7 +6135,7 @@
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="189"/>
+      <c r="A44" s="207"/>
       <c r="B44" s="1" t="s">
         <v>51</v>
       </c>
@@ -6146,7 +6149,7 @@
       <c r="I44" s="1"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="189"/>
+      <c r="A45" s="207"/>
       <c r="B45" s="1" t="s">
         <v>52</v>
       </c>
@@ -6160,7 +6163,7 @@
       <c r="I45" s="1"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A46" s="189"/>
+      <c r="A46" s="207"/>
       <c r="B46" s="1" t="s">
         <v>53</v>
       </c>
@@ -6174,7 +6177,7 @@
       <c r="I46" s="1"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A47" s="189"/>
+      <c r="A47" s="207"/>
       <c r="B47" s="1" t="s">
         <v>65</v>
       </c>
@@ -6190,7 +6193,7 @@
       <c r="I47" s="1"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A48" s="189"/>
+      <c r="A48" s="207"/>
       <c r="B48" s="1" t="s">
         <v>54</v>
       </c>
@@ -6206,7 +6209,7 @@
       <c r="I48" s="1"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A49" s="189"/>
+      <c r="A49" s="207"/>
       <c r="B49" s="1" t="s">
         <v>55</v>
       </c>
@@ -6222,7 +6225,7 @@
       <c r="I49" s="1"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A50" s="189"/>
+      <c r="A50" s="207"/>
       <c r="B50" s="1" t="s">
         <v>56</v>
       </c>
@@ -6238,7 +6241,7 @@
       <c r="I50" s="1"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A51" s="189"/>
+      <c r="A51" s="207"/>
       <c r="B51" s="1" t="s">
         <v>57</v>
       </c>
@@ -6254,7 +6257,7 @@
       <c r="I51" s="1"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A52" s="189"/>
+      <c r="A52" s="207"/>
       <c r="B52" s="1" t="s">
         <v>139</v>
       </c>
@@ -6274,7 +6277,7 @@
       <c r="I52" s="1"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A53" s="189"/>
+      <c r="A53" s="207"/>
       <c r="B53" s="1" t="s">
         <v>140</v>
       </c>
@@ -6290,7 +6293,7 @@
       <c r="I53" s="1"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A54" s="190"/>
+      <c r="A54" s="208"/>
       <c r="B54" s="41" t="s">
         <v>141</v>
       </c>
@@ -6307,7 +6310,7 @@
       <c r="I54" s="1"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A55" s="188" t="s">
+      <c r="A55" s="206" t="s">
         <v>84</v>
       </c>
       <c r="B55" s="39" t="s">
@@ -6326,7 +6329,7 @@
       <c r="I55" s="1"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A56" s="189"/>
+      <c r="A56" s="207"/>
       <c r="B56" s="1" t="s">
         <v>69</v>
       </c>
@@ -6338,7 +6341,7 @@
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="189"/>
+      <c r="A57" s="207"/>
       <c r="B57" s="1" t="s">
         <v>70</v>
       </c>
@@ -6352,7 +6355,7 @@
       <c r="I57" s="1"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A58" s="189"/>
+      <c r="A58" s="207"/>
       <c r="B58" s="1" t="s">
         <v>71</v>
       </c>
@@ -6366,7 +6369,7 @@
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="189"/>
+      <c r="A59" s="207"/>
       <c r="B59" s="1" t="s">
         <v>72</v>
       </c>
@@ -6380,7 +6383,7 @@
       <c r="I59" s="1"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A60" s="190"/>
+      <c r="A60" s="208"/>
       <c r="B60" s="41" t="s">
         <v>239</v>
       </c>
@@ -6439,36 +6442,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -12127,15 +12130,15 @@
     <row r="1" spans="2:60" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:60" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="61"/>
-      <c r="C2" s="214" t="s">
+      <c r="C2" s="232" t="s">
         <v>159</v>
       </c>
-      <c r="D2" s="215"/>
-      <c r="E2" s="215"/>
-      <c r="F2" s="215"/>
-      <c r="G2" s="215"/>
-      <c r="H2" s="215"/>
-      <c r="I2" s="216"/>
+      <c r="D2" s="233"/>
+      <c r="E2" s="233"/>
+      <c r="F2" s="233"/>
+      <c r="G2" s="233"/>
+      <c r="H2" s="233"/>
+      <c r="I2" s="234"/>
       <c r="J2" s="83"/>
       <c r="K2" s="84" t="s">
         <v>160</v>
@@ -12164,67 +12167,67 @@
       <c r="AE2" s="61"/>
       <c r="AF2" s="61"/>
       <c r="AG2" s="61"/>
-      <c r="AH2" s="214" t="s">
+      <c r="AH2" s="232" t="s">
         <v>162</v>
       </c>
-      <c r="AI2" s="215"/>
-      <c r="AJ2" s="215"/>
-      <c r="AK2" s="215"/>
-      <c r="AL2" s="215"/>
-      <c r="AM2" s="215"/>
-      <c r="AN2" s="215"/>
-      <c r="AO2" s="215"/>
-      <c r="AP2" s="215"/>
-      <c r="AQ2" s="215"/>
-      <c r="AR2" s="215"/>
-      <c r="AS2" s="215"/>
-      <c r="AT2" s="215"/>
-      <c r="AU2" s="215"/>
-      <c r="AV2" s="215"/>
-      <c r="AW2" s="215"/>
-      <c r="AX2" s="215"/>
-      <c r="AY2" s="215"/>
-      <c r="AZ2" s="215"/>
-      <c r="BA2" s="215"/>
-      <c r="BB2" s="215"/>
-      <c r="BC2" s="215"/>
-      <c r="BD2" s="215"/>
-      <c r="BE2" s="215"/>
-      <c r="BF2" s="215"/>
-      <c r="BG2" s="215"/>
-      <c r="BH2" s="216"/>
+      <c r="AI2" s="233"/>
+      <c r="AJ2" s="233"/>
+      <c r="AK2" s="233"/>
+      <c r="AL2" s="233"/>
+      <c r="AM2" s="233"/>
+      <c r="AN2" s="233"/>
+      <c r="AO2" s="233"/>
+      <c r="AP2" s="233"/>
+      <c r="AQ2" s="233"/>
+      <c r="AR2" s="233"/>
+      <c r="AS2" s="233"/>
+      <c r="AT2" s="233"/>
+      <c r="AU2" s="233"/>
+      <c r="AV2" s="233"/>
+      <c r="AW2" s="233"/>
+      <c r="AX2" s="233"/>
+      <c r="AY2" s="233"/>
+      <c r="AZ2" s="233"/>
+      <c r="BA2" s="233"/>
+      <c r="BB2" s="233"/>
+      <c r="BC2" s="233"/>
+      <c r="BD2" s="233"/>
+      <c r="BE2" s="233"/>
+      <c r="BF2" s="233"/>
+      <c r="BG2" s="233"/>
+      <c r="BH2" s="234"/>
     </row>
     <row r="3" spans="2:60" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="61"/>
-      <c r="C3" s="217" t="s">
+      <c r="C3" s="235" t="s">
         <v>163</v>
       </c>
-      <c r="D3" s="218"/>
-      <c r="E3" s="218"/>
-      <c r="F3" s="218"/>
-      <c r="G3" s="218"/>
-      <c r="H3" s="218"/>
-      <c r="I3" s="219"/>
+      <c r="D3" s="236"/>
+      <c r="E3" s="236"/>
+      <c r="F3" s="236"/>
+      <c r="G3" s="236"/>
+      <c r="H3" s="236"/>
+      <c r="I3" s="237"/>
       <c r="J3" s="83"/>
       <c r="K3" s="87"/>
-      <c r="L3" s="212" t="s">
+      <c r="L3" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="M3" s="212"/>
-      <c r="N3" s="212"/>
-      <c r="O3" s="212"/>
-      <c r="P3" s="212"/>
-      <c r="Q3" s="213"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="230"/>
+      <c r="P3" s="230"/>
+      <c r="Q3" s="231"/>
       <c r="R3" s="83"/>
       <c r="S3" s="87"/>
-      <c r="T3" s="212" t="s">
+      <c r="T3" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="U3" s="212"/>
-      <c r="V3" s="212"/>
-      <c r="W3" s="212"/>
-      <c r="X3" s="212"/>
-      <c r="Y3" s="213"/>
+      <c r="U3" s="230"/>
+      <c r="V3" s="230"/>
+      <c r="W3" s="230"/>
+      <c r="X3" s="230"/>
+      <c r="Y3" s="231"/>
       <c r="Z3" s="83"/>
       <c r="AA3" s="88" t="s">
         <v>165</v>
@@ -16889,14 +16892,14 @@
     </row>
     <row r="35" spans="19:25" ht="16" x14ac:dyDescent="0.2">
       <c r="S35" s="87"/>
-      <c r="T35" s="212" t="s">
+      <c r="T35" s="230" t="s">
         <v>164</v>
       </c>
-      <c r="U35" s="212"/>
-      <c r="V35" s="212"/>
-      <c r="W35" s="212"/>
-      <c r="X35" s="212"/>
-      <c r="Y35" s="213"/>
+      <c r="U35" s="230"/>
+      <c r="V35" s="230"/>
+      <c r="W35" s="230"/>
+      <c r="X35" s="230"/>
+      <c r="Y35" s="231"/>
     </row>
     <row r="36" spans="19:25" ht="17" x14ac:dyDescent="0.2">
       <c r="S36" s="97"/>
@@ -17486,15 +17489,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="220" t="s">
+      <c r="G1" s="238" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
       <c r="N1" s="147"/>
       <c r="O1" s="148" t="s">
         <v>194</v>
@@ -17504,10 +17507,10 @@
         <v>195</v>
       </c>
       <c r="R1" s="150"/>
-      <c r="S1" s="220" t="s">
+      <c r="S1" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="220"/>
+      <c r="T1" s="238"/>
       <c r="U1" s="147"/>
       <c r="V1" s="148" t="s">
         <v>197</v>
@@ -19272,15 +19275,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="220" t="s">
+      <c r="G1" s="238" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
       <c r="N1" s="147"/>
       <c r="O1" s="148" t="s">
         <v>194</v>
@@ -19290,10 +19293,10 @@
         <v>195</v>
       </c>
       <c r="R1" s="150"/>
-      <c r="S1" s="220" t="s">
+      <c r="S1" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="220"/>
+      <c r="T1" s="238"/>
       <c r="U1" s="147"/>
       <c r="V1" s="148" t="s">
         <v>197</v>
@@ -21047,15 +21050,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="220" t="s">
+      <c r="G1" s="238" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
       <c r="N1" s="147"/>
       <c r="O1" s="148" t="s">
         <v>194</v>
@@ -21065,10 +21068,10 @@
         <v>195</v>
       </c>
       <c r="R1" s="150"/>
-      <c r="S1" s="220" t="s">
+      <c r="S1" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="220"/>
+      <c r="T1" s="238"/>
       <c r="U1" s="147"/>
       <c r="V1" s="148" t="s">
         <v>197</v>
@@ -22832,15 +22835,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="52" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G1" s="220" t="s">
+      <c r="G1" s="238" t="s">
         <v>193</v>
       </c>
-      <c r="H1" s="220"/>
-      <c r="I1" s="220"/>
-      <c r="J1" s="220"/>
-      <c r="K1" s="220"/>
-      <c r="L1" s="220"/>
-      <c r="M1" s="220"/>
+      <c r="H1" s="238"/>
+      <c r="I1" s="238"/>
+      <c r="J1" s="238"/>
+      <c r="K1" s="238"/>
+      <c r="L1" s="238"/>
+      <c r="M1" s="238"/>
       <c r="N1" s="147"/>
       <c r="O1" s="148" t="s">
         <v>194</v>
@@ -22850,10 +22853,10 @@
         <v>195</v>
       </c>
       <c r="R1" s="150"/>
-      <c r="S1" s="220" t="s">
+      <c r="S1" s="238" t="s">
         <v>196</v>
       </c>
-      <c r="T1" s="220"/>
+      <c r="T1" s="238"/>
       <c r="U1" s="147"/>
       <c r="V1" s="148" t="s">
         <v>197</v>
@@ -24607,13 +24610,13 @@
   <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" ht="91" x14ac:dyDescent="0.2">
-      <c r="A1" s="192" t="s">
+      <c r="A1" s="210" t="s">
         <v>249</v>
       </c>
       <c r="B1" s="167" t="s">
@@ -24636,7 +24639,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="193"/>
+      <c r="A2" s="211"/>
       <c r="B2" s="170" t="s">
         <v>256</v>
       </c>
@@ -26992,7 +26995,7 @@
   <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1:U1"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -27015,36 +27018,36 @@
       <c r="A1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
       <c r="U1" s="165" t="s">
         <v>264</v>
       </c>
@@ -27212,15 +27215,15 @@
         <v>1</v>
       </c>
       <c r="B4" s="15">
-        <f t="shared" ref="B4:B33" si="2">SUM(C3,F3,I3,L3,O3)</f>
-        <v>1000</v>
+        <f>SUM(C4,F4,I4,L4,O4)</f>
+        <v>995.76900000000001</v>
       </c>
       <c r="C4" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C3*(1-'Life Table - Male'!B48)</f>
         <v>916.10748000000001</v>
       </c>
       <c r="D4" s="19">
-        <f t="shared" ref="D4:D33" si="3">C4*0*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="D4:D33" si="2">C4*0*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
       <c r="E4" s="20">
@@ -27232,11 +27235,11 @@
         <v>49.788449999999997</v>
       </c>
       <c r="G4" s="19">
-        <f t="shared" ref="G4:G33" si="4">F4*SUM(nVisitsStage1*cVisit,cTreatmentStage1)*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="G4:G33" si="3">F4*SUM(nVisitsStage1*cVisit,cTreatmentStage1)*W4/(1+discount_rate)^A4</f>
         <v>51560.854368932029</v>
       </c>
       <c r="H4" s="20">
-        <f t="shared" ref="H4:H33" si="5">F4*uStage1*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="H4:H33" si="4">F4*uStage1*W4/(1+discount_rate)^A4</f>
         <v>28.358469902912617</v>
       </c>
       <c r="I4" s="27">
@@ -27244,11 +27247,11 @@
         <v>19.915379999999999</v>
       </c>
       <c r="J4" s="19">
-        <f t="shared" ref="J4:J33" si="6">I4*SUM(nVisitsStage2*cVisit,cTreatmentStage2)*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="J4:J33" si="5">I4*SUM(nVisitsStage2*cVisit,cTreatmentStage2)*W4/(1+discount_rate)^A4</f>
         <v>92809.537864077662</v>
       </c>
       <c r="K4" s="20">
-        <f t="shared" ref="K4:K33" si="7">I4*uStage2*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="K4:K33" si="6">I4*uStage2*W4/(1+discount_rate)^A4</f>
         <v>9.1520516504854346</v>
       </c>
       <c r="L4" s="27">
@@ -27256,11 +27259,11 @@
         <v>9.9576899999999995</v>
       </c>
       <c r="M4" s="19">
-        <f t="shared" ref="M4:M33" si="8">L4*SUM(nVisitsStage3*cVisit,cTreatmentStage3)*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="M4:M33" si="7">L4*SUM(nVisitsStage3*cVisit,cTreatmentStage3)*W4/(1+discount_rate)^A4</f>
         <v>149526.4776699029</v>
       </c>
       <c r="N4" s="20">
-        <f t="shared" ref="N4:N33" si="9">L4*uStage3*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="N4:N33" si="8">L4*uStage3*W4/(1+discount_rate)^A4</f>
         <v>2.3202384466019415</v>
       </c>
       <c r="O4" s="27">
@@ -27268,11 +27271,11 @@
         <v>0</v>
       </c>
       <c r="P4" s="19">
-        <f t="shared" ref="P4:P33" si="10">O4*SUM(nVisitsRemission*cVisit,cTreatmentRemission)*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="P4:P33" si="9">O4*SUM(nVisitsRemission*cVisit,cTreatmentRemission)*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
       <c r="Q4" s="23">
-        <f t="shared" ref="Q4:Q33" si="11">O4*uRemission*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="Q4:Q33" si="10">O4*uRemission*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
       <c r="R4" s="27">
@@ -27280,19 +27283,19 @@
         <v>0</v>
       </c>
       <c r="S4" s="19">
-        <f t="shared" ref="S4:S33" si="12">R4*0*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="S4:S33" si="11">R4*0*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
       <c r="T4" s="23">
-        <f t="shared" ref="T4:T33" si="13">R4*0*W4/(1+discount_rate)^A4</f>
+        <f t="shared" ref="T4:T33" si="12">R4*0*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
       <c r="U4" s="181">
-        <f>SUM(B4*'Life Table - Male'!B48,U3)</f>
+        <f>SUM(B3*'Life Table - Male'!B48,U3)</f>
         <v>4.2310000000000008</v>
       </c>
       <c r="V4" s="49">
-        <f>SUM(C4,F4,I4,L4,O4,R4-R3,U4-U3)-B4</f>
+        <f>SUM(C4,F4,I4,L4,O4,R4-R3,U4-U3)-B3</f>
         <v>0</v>
       </c>
       <c r="W4" s="54">
@@ -27312,15 +27315,15 @@
         <v>2</v>
       </c>
       <c r="B5" s="15">
-        <f t="shared" si="2"/>
-        <v>995.76900000000001</v>
+        <f t="shared" ref="B5:B33" si="13">SUM(C5,F5,I5,L5,O5)</f>
+        <v>986.81237400165742</v>
       </c>
       <c r="C5" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C4*(1-'Life Table - Male'!B49)</f>
         <v>839.013554349576</v>
       </c>
       <c r="D5" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E5" s="20">
@@ -27332,11 +27335,11 @@
         <v>78.8062116857175</v>
       </c>
       <c r="G5" s="19">
+        <f t="shared" si="3"/>
+        <v>158469.14719847677</v>
+      </c>
+      <c r="H5" s="20">
         <f t="shared" si="4"/>
-        <v>158469.14719847677</v>
-      </c>
-      <c r="H5" s="20">
-        <f t="shared" si="5"/>
         <v>87.158030959162218</v>
       </c>
       <c r="I5" s="27">
@@ -27344,11 +27347,11 @@
         <v>35.586704396443494</v>
       </c>
       <c r="J5" s="19">
+        <f t="shared" si="5"/>
+        <v>322021.26704294235</v>
+      </c>
+      <c r="K5" s="20">
         <f t="shared" si="6"/>
-        <v>322021.26704294235</v>
-      </c>
-      <c r="K5" s="20">
-        <f t="shared" si="7"/>
         <v>31.75487494451237</v>
       </c>
       <c r="L5" s="27">
@@ -27356,11 +27359,11 @@
         <v>17.049897370997996</v>
       </c>
       <c r="M5" s="19">
+        <f t="shared" si="7"/>
+        <v>497134.65800377476</v>
+      </c>
+      <c r="N5" s="20">
         <f t="shared" si="8"/>
-        <v>497134.65800377476</v>
-      </c>
-      <c r="N5" s="20">
-        <f t="shared" si="9"/>
         <v>7.7141584862654708</v>
       </c>
       <c r="O5" s="27">
@@ -27368,11 +27371,11 @@
         <v>16.356006198922501</v>
       </c>
       <c r="P5" s="19">
+        <f t="shared" si="9"/>
+        <v>10278.06968858045</v>
+      </c>
+      <c r="Q5" s="23">
         <f t="shared" si="10"/>
-        <v>10278.06968858045</v>
-      </c>
-      <c r="Q5" s="23">
-        <f t="shared" si="11"/>
         <v>19.528332408302855</v>
       </c>
       <c r="R5" s="27">
@@ -27380,19 +27383,19 @@
         <v>4.4607289633424996</v>
       </c>
       <c r="S5" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T5" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T5" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U5" s="181">
-        <f>SUM(B5*'Life Table - Male'!B49,U4)</f>
+        <f>SUM(B4*'Life Table - Male'!B49,U4)</f>
         <v>8.7268970350000004</v>
       </c>
       <c r="V5" s="49">
-        <f t="shared" ref="V5:V33" si="14">SUM(C5,F5,I5,L5,O5,R5-R4,U5-U4)-B5</f>
+        <f t="shared" ref="V5:V33" si="14">SUM(C5,F5,I5,L5,O5,R5-R4,U5-U4)-B4</f>
         <v>0</v>
       </c>
       <c r="W5" s="54">
@@ -27412,15 +27415,15 @@
         <v>3</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" si="2"/>
-        <v>986.81237400165742</v>
+        <f t="shared" si="13"/>
+        <v>974.40969523029594</v>
       </c>
       <c r="C6" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C5*(1-'Life Table - Male'!B50)</f>
         <v>768.1634574790321</v>
       </c>
       <c r="D6" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E6" s="20">
@@ -27432,11 +27435,11 @@
         <v>96.123026548189884</v>
       </c>
       <c r="G6" s="19">
+        <f t="shared" si="3"/>
+        <v>93830.59841851551</v>
+      </c>
+      <c r="H6" s="20">
         <f t="shared" si="4"/>
-        <v>93830.59841851551</v>
-      </c>
-      <c r="H6" s="20">
-        <f t="shared" si="5"/>
         <v>51.606829130183534</v>
       </c>
       <c r="I6" s="27">
@@ -27444,11 +27447,11 @@
         <v>47.452852484067911</v>
       </c>
       <c r="J6" s="19">
+        <f t="shared" si="5"/>
+        <v>208445.19438389089</v>
+      </c>
+      <c r="K6" s="20">
         <f t="shared" si="6"/>
-        <v>208445.19438389089</v>
-      </c>
-      <c r="K6" s="20">
-        <f t="shared" si="7"/>
         <v>20.555012223967019</v>
       </c>
       <c r="L6" s="27">
@@ -27456,11 +27459,11 @@
         <v>22.145585211210125</v>
       </c>
       <c r="M6" s="19">
+        <f t="shared" si="7"/>
+        <v>313452.84284185339</v>
+      </c>
+      <c r="N6" s="20">
         <f t="shared" si="8"/>
-        <v>313452.84284185339</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" si="9"/>
         <v>4.8639234234080702</v>
       </c>
       <c r="O6" s="27">
@@ -27468,11 +27471,11 @@
         <v>40.524773507795985</v>
       </c>
       <c r="P6" s="19">
+        <f t="shared" si="9"/>
+        <v>12361.969490945126</v>
+      </c>
+      <c r="Q6" s="23">
         <f t="shared" si="10"/>
-        <v>12361.969490945126</v>
-      </c>
-      <c r="Q6" s="23">
-        <f t="shared" si="11"/>
         <v>23.48774203279574</v>
       </c>
       <c r="R6" s="27">
@@ -27480,15 +27483,15 @@
         <v>12.096117155901917</v>
       </c>
       <c r="S6" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T6" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U6" s="181">
-        <f>SUM(B6*'Life Table - Male'!B50,U5)</f>
+        <f>SUM(B5*'Life Table - Male'!B50,U5)</f>
         <v>13.494187613802008</v>
       </c>
       <c r="V6" s="49">
@@ -27512,15 +27515,15 @@
         <v>4</v>
       </c>
       <c r="B7" s="15">
-        <f t="shared" si="2"/>
-        <v>974.40969523029594</v>
+        <f t="shared" si="13"/>
+        <v>959.44739657890398</v>
       </c>
       <c r="C7" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C6*(1-'Life Table - Male'!B51)</f>
         <v>703.04891439736662</v>
       </c>
       <c r="D7" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E7" s="20">
@@ -27532,11 +27535,11 @@
         <v>106.75727010465269</v>
       </c>
       <c r="G7" s="19">
+        <f t="shared" si="3"/>
+        <v>202351.89708548415</v>
+      </c>
+      <c r="H7" s="20">
         <f t="shared" si="4"/>
-        <v>202351.89708548415</v>
-      </c>
-      <c r="H7" s="20">
-        <f t="shared" si="5"/>
         <v>111.29354339701629</v>
       </c>
       <c r="I7" s="27">
@@ -27544,11 +27547,11 @@
         <v>56.287656099613947</v>
       </c>
       <c r="J7" s="19">
+        <f t="shared" si="5"/>
+        <v>480104.19265957928</v>
+      </c>
+      <c r="K7" s="20">
         <f t="shared" si="6"/>
-        <v>480104.19265957928</v>
-      </c>
-      <c r="K7" s="20">
-        <f t="shared" si="7"/>
         <v>47.343607887264071</v>
       </c>
       <c r="L7" s="27">
@@ -27556,11 +27559,11 @@
         <v>25.738310381475948</v>
       </c>
       <c r="M7" s="19">
+        <f t="shared" si="7"/>
+        <v>707388.27399048908</v>
+      </c>
+      <c r="N7" s="20">
         <f t="shared" si="8"/>
-        <v>707388.27399048908</v>
-      </c>
-      <c r="N7" s="20">
-        <f t="shared" si="9"/>
         <v>10.97671459640414</v>
       </c>
       <c r="O7" s="27">
@@ -27568,11 +27571,11 @@
         <v>67.615245595794804</v>
       </c>
       <c r="P7" s="19">
+        <f t="shared" si="9"/>
+        <v>40050.179969001336</v>
+      </c>
+      <c r="Q7" s="23">
         <f t="shared" si="10"/>
-        <v>40050.179969001336</v>
-      </c>
-      <c r="Q7" s="23">
-        <f t="shared" si="11"/>
         <v>76.095341941102532</v>
       </c>
       <c r="R7" s="27">
@@ -27580,15 +27583,15 @@
         <v>22.009999176305797</v>
       </c>
       <c r="S7" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T7" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T7" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U7" s="181">
-        <f>SUM(B7*'Life Table - Male'!B51,U6)</f>
+        <f>SUM(B6*'Life Table - Male'!B51,U6)</f>
         <v>18.542604244790173</v>
       </c>
       <c r="V7" s="49">
@@ -27612,15 +27615,15 @@
         <v>5</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" si="2"/>
-        <v>959.44739657890398</v>
+        <f t="shared" si="13"/>
+        <v>942.58554798326645</v>
       </c>
       <c r="C8" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C7*(1-'Life Table - Male'!B52)</f>
         <v>643.20229738863941</v>
       </c>
       <c r="D8" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="20">
@@ -27632,11 +27635,11 @@
         <v>113.4849270293586</v>
       </c>
       <c r="G8" s="19">
+        <f t="shared" si="3"/>
+        <v>104419.30128076863</v>
+      </c>
+      <c r="H8" s="20">
         <f t="shared" si="4"/>
-        <v>104419.30128076863</v>
-      </c>
-      <c r="H8" s="20">
-        <f t="shared" si="5"/>
         <v>57.430615704422742</v>
       </c>
       <c r="I8" s="27">
@@ -27644,11 +27647,11 @@
         <v>62.825080996507772</v>
       </c>
       <c r="J8" s="19">
+        <f t="shared" si="5"/>
+        <v>260128.64038672426</v>
+      </c>
+      <c r="K8" s="20">
         <f t="shared" si="6"/>
-        <v>260128.64038672426</v>
-      </c>
-      <c r="K8" s="20">
-        <f t="shared" si="7"/>
         <v>25.651574260357528</v>
       </c>
       <c r="L8" s="27">
@@ -27656,11 +27659,11 @@
         <v>28.184923394038162</v>
       </c>
       <c r="M8" s="19">
+        <f t="shared" si="7"/>
+        <v>376034.30010659696</v>
+      </c>
+      <c r="N8" s="20">
         <f t="shared" si="8"/>
-        <v>376034.30010659696</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" si="9"/>
         <v>5.8350150016540914</v>
       </c>
       <c r="O8" s="27">
@@ -27668,11 +27671,11 @@
         <v>94.888319174722554</v>
       </c>
       <c r="P8" s="19">
+        <f t="shared" si="9"/>
+        <v>27283.832551854663</v>
+      </c>
+      <c r="Q8" s="23">
         <f t="shared" si="10"/>
-        <v>27283.832551854663</v>
-      </c>
-      <c r="Q8" s="23">
-        <f t="shared" si="11"/>
         <v>51.839281848523861</v>
       </c>
       <c r="R8" s="27">
@@ -27680,15 +27683,15 @@
         <v>33.527725772998807</v>
       </c>
       <c r="S8" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T8" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T8" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U8" s="181">
-        <f>SUM(B8*'Life Table - Male'!B52,U7)</f>
+        <f>SUM(B7*'Life Table - Male'!B52,U7)</f>
         <v>23.886726243734667</v>
       </c>
       <c r="V8" s="49">
@@ -27712,15 +27715,15 @@
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <f t="shared" si="2"/>
-        <v>942.58554798326645</v>
+        <f t="shared" si="13"/>
+        <v>924.33686699620034</v>
       </c>
       <c r="C9" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C8*(1-'Life Table - Male'!B53)</f>
         <v>588.20451310766691</v>
       </c>
       <c r="D9" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="20">
@@ -27732,11 +27735,11 @@
         <v>117.84584931642893</v>
       </c>
       <c r="G9" s="19">
+        <f t="shared" si="3"/>
+        <v>210547.29283844994</v>
+      </c>
+      <c r="H9" s="20">
         <f t="shared" si="4"/>
-        <v>210547.29283844994</v>
-      </c>
-      <c r="H9" s="20">
-        <f t="shared" si="5"/>
         <v>115.80101106114748</v>
       </c>
       <c r="I9" s="27">
@@ -27744,11 +27747,11 @@
         <v>67.653902799529703</v>
       </c>
       <c r="J9" s="19">
+        <f t="shared" si="5"/>
+        <v>543927.1535789984</v>
+      </c>
+      <c r="K9" s="20">
         <f t="shared" si="6"/>
-        <v>543927.1535789984</v>
-      </c>
-      <c r="K9" s="20">
-        <f t="shared" si="7"/>
         <v>53.63726097792901</v>
       </c>
       <c r="L9" s="27">
@@ -27756,11 +27759,11 @@
         <v>29.769006563161657</v>
       </c>
       <c r="M9" s="19">
+        <f t="shared" si="7"/>
+        <v>771201.2327243177</v>
+      </c>
+      <c r="N9" s="20">
         <f t="shared" si="8"/>
-        <v>771201.2327243177</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" si="9"/>
         <v>11.966915680204929</v>
       </c>
       <c r="O9" s="27">
@@ -27768,11 +27771,11 @@
         <v>120.86359520941328</v>
       </c>
       <c r="P9" s="19">
+        <f t="shared" si="9"/>
+        <v>67480.905462713039</v>
+      </c>
+      <c r="Q9" s="23">
         <f t="shared" si="10"/>
-        <v>67480.905462713039</v>
-      </c>
-      <c r="Q9" s="23">
-        <f t="shared" si="11"/>
         <v>128.21372037915478</v>
       </c>
       <c r="R9" s="27">
@@ -27780,15 +27783,15 @@
         <v>46.135032255384985</v>
       </c>
       <c r="S9" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T9" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T9" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U9" s="181">
-        <f>SUM(B9*'Life Table - Male'!B53,U8)</f>
+        <f>SUM(B8*'Life Table - Male'!B53,U8)</f>
         <v>29.528100748414516</v>
       </c>
       <c r="V9" s="49">
@@ -27812,15 +27815,15 @@
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <f t="shared" si="2"/>
-        <v>924.33686699620034</v>
+        <f t="shared" si="13"/>
+        <v>905.06524579220184</v>
       </c>
       <c r="C10" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C9*(1-'Life Table - Male'!B54)</f>
         <v>537.65774647827277</v>
       </c>
       <c r="D10" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="20">
@@ -27832,11 +27835,11 @@
         <v>120.69554229068071</v>
       </c>
       <c r="G10" s="19">
+        <f t="shared" si="3"/>
+        <v>104678.95561977093</v>
+      </c>
+      <c r="H10" s="20">
         <f t="shared" si="4"/>
-        <v>104678.95561977093</v>
-      </c>
-      <c r="H10" s="20">
-        <f t="shared" si="5"/>
         <v>57.573425590874002</v>
       </c>
       <c r="I10" s="27">
@@ -27844,11 +27847,11 @@
         <v>71.210358389236973</v>
       </c>
       <c r="J10" s="19">
+        <f t="shared" si="5"/>
+        <v>277922.58204483148</v>
+      </c>
+      <c r="K10" s="20">
         <f t="shared" si="6"/>
-        <v>277922.58204483148</v>
-      </c>
-      <c r="K10" s="20">
-        <f t="shared" si="7"/>
         <v>27.406254618309767</v>
       </c>
       <c r="L10" s="27">
@@ -27856,11 +27859,11 @@
         <v>30.715234444366768</v>
       </c>
       <c r="M10" s="19">
+        <f t="shared" si="7"/>
+        <v>386269.11758583074</v>
+      </c>
+      <c r="N10" s="20">
         <f t="shared" si="8"/>
-        <v>386269.11758583074</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" si="9"/>
         <v>5.993831134952547</v>
       </c>
       <c r="O10" s="27">
@@ -27868,11 +27871,11 @@
         <v>144.78636418964473</v>
       </c>
       <c r="P10" s="19">
+        <f t="shared" si="9"/>
+        <v>39241.521226955818</v>
+      </c>
+      <c r="Q10" s="23">
         <f t="shared" si="10"/>
-        <v>39241.521226955818</v>
-      </c>
-      <c r="Q10" s="23">
-        <f t="shared" si="11"/>
         <v>74.558890331216062</v>
       </c>
       <c r="R10" s="27">
@@ -27880,15 +27883,15 @@
         <v>59.444680667258154</v>
       </c>
       <c r="S10" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T10" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U10" s="181">
-        <f>SUM(B10*'Life Table - Male'!B54,U9)</f>
+        <f>SUM(B9*'Life Table - Male'!B54,U9)</f>
         <v>35.49007354054001</v>
       </c>
       <c r="V10" s="49">
@@ -27912,15 +27915,15 @@
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <f t="shared" si="2"/>
-        <v>905.06524579220184</v>
+        <f t="shared" si="13"/>
+        <v>885.00112158663012</v>
       </c>
       <c r="C11" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C10*(1-'Life Table - Male'!B55)</f>
         <v>491.18063229218382</v>
       </c>
       <c r="D11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="20">
@@ -27932,11 +27935,11 @@
         <v>122.51003164564682</v>
       </c>
       <c r="G11" s="19">
+        <f t="shared" si="3"/>
+        <v>206315.84059128768</v>
+      </c>
+      <c r="H11" s="20">
         <f t="shared" si="4"/>
-        <v>206315.84059128768</v>
-      </c>
-      <c r="H11" s="20">
-        <f t="shared" si="5"/>
         <v>113.47371232520821</v>
       </c>
       <c r="I11" s="27">
@@ -27944,11 +27947,11 @@
         <v>73.803438798992659</v>
       </c>
       <c r="J11" s="19">
+        <f t="shared" si="5"/>
+        <v>559306.71467566281</v>
+      </c>
+      <c r="K11" s="20">
         <f t="shared" si="6"/>
-        <v>559306.71467566281</v>
-      </c>
-      <c r="K11" s="20">
-        <f t="shared" si="7"/>
         <v>55.153856586072301</v>
       </c>
       <c r="L11" s="27">
@@ -27956,11 +27959,11 @@
         <v>31.195712543240418</v>
       </c>
       <c r="M11" s="19">
+        <f t="shared" si="7"/>
+        <v>761769.94456157309</v>
+      </c>
+      <c r="N11" s="20">
         <f t="shared" si="8"/>
-        <v>761769.94456157309</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" si="9"/>
         <v>11.820568105265787</v>
       </c>
       <c r="O11" s="27">
@@ -27968,11 +27971,11 @@
         <v>166.31130630656631</v>
       </c>
       <c r="P11" s="19">
+        <f t="shared" si="9"/>
+        <v>87525.120646144642</v>
+      </c>
+      <c r="Q11" s="23">
         <f t="shared" si="10"/>
-        <v>87525.120646144642</v>
-      </c>
-      <c r="Q11" s="23">
-        <f t="shared" si="11"/>
         <v>166.29772922767481</v>
       </c>
       <c r="R11" s="27">
@@ -27980,15 +27983,15 @@
         <v>73.169727891301449</v>
       </c>
       <c r="S11" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T11" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U11" s="181">
-        <f>SUM(B11*'Life Table - Male'!B55,U10)</f>
+        <f>SUM(B10*'Life Table - Male'!B55,U10)</f>
         <v>41.829150522068588</v>
       </c>
       <c r="V11" s="49">
@@ -28012,15 +28015,15 @@
         <v>9</v>
       </c>
       <c r="B12" s="15">
-        <f t="shared" si="2"/>
-        <v>885.00112158663012</v>
+        <f t="shared" si="13"/>
+        <v>864.29408686110764</v>
       </c>
       <c r="C12" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C11*(1-'Life Table - Male'!B56)</f>
         <v>448.4260892154648</v>
       </c>
       <c r="D12" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="20">
@@ -28032,11 +28035,11 @@
         <v>123.55846748302773</v>
       </c>
       <c r="G12" s="19">
+        <f t="shared" si="3"/>
+        <v>101010.42869517693</v>
+      </c>
+      <c r="H12" s="20">
         <f t="shared" si="4"/>
-        <v>101010.42869517693</v>
-      </c>
-      <c r="H12" s="20">
-        <f t="shared" si="5"/>
         <v>55.55573578234732</v>
       </c>
       <c r="I12" s="27">
@@ -28044,11 +28047,11 @@
         <v>75.648321378337002</v>
       </c>
       <c r="J12" s="19">
+        <f t="shared" si="5"/>
+        <v>278295.06853471481</v>
+      </c>
+      <c r="K12" s="20">
         <f t="shared" si="6"/>
-        <v>278295.06853471481</v>
-      </c>
-      <c r="K12" s="20">
-        <f t="shared" si="7"/>
         <v>27.442985924951042</v>
       </c>
       <c r="L12" s="27">
@@ -28056,11 +28059,11 @@
         <v>31.338368988271956</v>
       </c>
       <c r="M12" s="19">
+        <f t="shared" si="7"/>
+        <v>371482.27218780649</v>
+      </c>
+      <c r="N12" s="20">
         <f t="shared" si="8"/>
-        <v>371482.27218780649</v>
-      </c>
-      <c r="N12" s="20">
-        <f t="shared" si="9"/>
         <v>5.7643800856728591</v>
       </c>
       <c r="O12" s="27">
@@ -28068,11 +28071,11 @@
         <v>185.32283979600618</v>
       </c>
       <c r="P12" s="19">
+        <f t="shared" si="9"/>
+        <v>47344.841768365506</v>
+      </c>
+      <c r="Q12" s="23">
         <f t="shared" si="10"/>
-        <v>47344.841768365506</v>
-      </c>
-      <c r="Q12" s="23">
-        <f t="shared" si="11"/>
         <v>89.955199359894465</v>
       </c>
       <c r="R12" s="27">
@@ -28080,15 +28083,15 @@
         <v>87.100309028835028</v>
       </c>
       <c r="S12" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T12" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U12" s="181">
-        <f>SUM(B12*'Life Table - Male'!B56,U11)</f>
+        <f>SUM(B11*'Life Table - Male'!B56,U11)</f>
         <v>48.605604110057413</v>
       </c>
       <c r="V12" s="49">
@@ -28112,15 +28115,15 @@
         <v>10</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" si="2"/>
-        <v>864.29408686110764</v>
+        <f t="shared" si="13"/>
+        <v>843.06636316612321</v>
       </c>
       <c r="C13" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C12*(1-'Life Table - Male'!B57)</f>
         <v>409.09440374881001</v>
       </c>
       <c r="D13" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="20">
@@ -28132,11 +28135,11 @@
         <v>124.00097263408246</v>
       </c>
       <c r="G13" s="19">
+        <f t="shared" si="3"/>
+        <v>196839.18758036502</v>
+      </c>
+      <c r="H13" s="20">
         <f t="shared" si="4"/>
-        <v>196839.18758036502</v>
-      </c>
-      <c r="H13" s="20">
-        <f t="shared" si="5"/>
         <v>108.26155316920075</v>
       </c>
       <c r="I13" s="27">
@@ -28144,11 +28147,11 @@
         <v>76.896505237732185</v>
       </c>
       <c r="J13" s="19">
+        <f t="shared" si="5"/>
+        <v>549294.92759251839</v>
+      </c>
+      <c r="K13" s="20">
         <f t="shared" si="6"/>
-        <v>549294.92759251839</v>
-      </c>
-      <c r="K13" s="20">
-        <f t="shared" si="7"/>
         <v>54.166583137595566</v>
       </c>
       <c r="L13" s="27">
@@ -28156,11 +28159,11 @@
         <v>31.236686280037901</v>
       </c>
       <c r="M13" s="19">
+        <f t="shared" si="7"/>
+        <v>718984.33844577335</v>
+      </c>
+      <c r="N13" s="20">
         <f t="shared" si="8"/>
-        <v>718984.33844577335</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" si="9"/>
         <v>11.156653527606828</v>
       </c>
       <c r="O13" s="27">
@@ -28168,11 +28171,11 @@
         <v>201.83779526546061</v>
       </c>
       <c r="P13" s="19">
+        <f t="shared" si="9"/>
+        <v>100124.18350213351</v>
+      </c>
+      <c r="Q13" s="23">
         <f t="shared" si="10"/>
-        <v>100124.18350213351</v>
-      </c>
-      <c r="Q13" s="23">
-        <f t="shared" si="11"/>
         <v>190.23594865405369</v>
       </c>
       <c r="R13" s="27">
@@ -28180,15 +28183,15 @@
         <v>101.0843839818366</v>
       </c>
       <c r="S13" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T13" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T13" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U13" s="181">
-        <f>SUM(B13*'Life Table - Male'!B57,U12)</f>
+        <f>SUM(B12*'Life Table - Male'!B57,U12)</f>
         <v>55.849252852040358</v>
       </c>
       <c r="V13" s="49">
@@ -28212,15 +28215,15 @@
         <v>11</v>
       </c>
       <c r="B14" s="15">
-        <f t="shared" si="2"/>
-        <v>843.06636316612321</v>
+        <f t="shared" si="13"/>
+        <v>821.45342951779617</v>
       </c>
       <c r="C14" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C13*(1-'Life Table - Male'!B58)</f>
         <v>372.93626759794842</v>
       </c>
       <c r="D14" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E14" s="20">
@@ -28232,11 +28235,11 @@
         <v>123.94381691825791</v>
       </c>
       <c r="G14" s="19">
+        <f t="shared" si="3"/>
+        <v>95508.960474251886</v>
+      </c>
+      <c r="H14" s="20">
         <f t="shared" si="4"/>
-        <v>95508.960474251886</v>
-      </c>
-      <c r="H14" s="20">
-        <f t="shared" si="5"/>
         <v>52.529928260838538</v>
       </c>
       <c r="I14" s="27">
@@ -28244,11 +28247,11 @@
         <v>77.659237079829794</v>
       </c>
       <c r="J14" s="19">
+        <f t="shared" si="5"/>
+        <v>269292.88891630352</v>
+      </c>
+      <c r="K14" s="20">
         <f t="shared" si="6"/>
-        <v>269292.88891630352</v>
-      </c>
-      <c r="K14" s="20">
-        <f t="shared" si="7"/>
         <v>26.555270990357712</v>
       </c>
       <c r="L14" s="27">
@@ -28256,11 +28259,11 @@
         <v>30.958976063757614</v>
       </c>
       <c r="M14" s="19">
+        <f t="shared" si="7"/>
+        <v>345918.54255730059</v>
+      </c>
+      <c r="N14" s="20">
         <f t="shared" si="8"/>
-        <v>345918.54255730059</v>
-      </c>
-      <c r="N14" s="20">
-        <f t="shared" si="9"/>
         <v>5.3677015224408713</v>
       </c>
       <c r="O14" s="27">
@@ -28268,11 +28271,11 @@
         <v>215.95513185800229</v>
       </c>
       <c r="P14" s="19">
+        <f t="shared" si="9"/>
+        <v>52003.527348304007</v>
+      </c>
+      <c r="Q14" s="23">
         <f t="shared" si="10"/>
-        <v>52003.527348304007</v>
-      </c>
-      <c r="Q14" s="23">
-        <f t="shared" si="11"/>
         <v>98.80670196177762</v>
       </c>
       <c r="R14" s="27">
@@ -28280,15 +28283,15 @@
         <v>115.01276772990451</v>
       </c>
       <c r="S14" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T14" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U14" s="181">
-        <f>SUM(B14*'Life Table - Male'!B58,U13)</f>
+        <f>SUM(B13*'Life Table - Male'!B58,U13)</f>
         <v>63.533802752299572</v>
       </c>
       <c r="V14" s="49">
@@ -28312,15 +28315,15 @@
         <v>12</v>
       </c>
       <c r="B15" s="15">
-        <f t="shared" si="2"/>
-        <v>821.45342951779617</v>
+        <f t="shared" si="13"/>
+        <v>799.5605319727448</v>
       </c>
       <c r="C15" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C14*(1-'Life Table - Male'!B59)</f>
         <v>339.71872982084426</v>
       </c>
       <c r="D15" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E15" s="20">
@@ -28332,11 +28335,11 @@
         <v>123.45946283887895</v>
       </c>
       <c r="G15" s="19">
+        <f t="shared" si="3"/>
+        <v>184729.56427652639</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="4"/>
-        <v>184729.56427652639</v>
-      </c>
-      <c r="H15" s="20">
-        <f t="shared" si="5"/>
         <v>101.60126035208951</v>
       </c>
       <c r="I15" s="27">
@@ -28344,11 +28347,11 @@
         <v>78.01752114490391</v>
       </c>
       <c r="J15" s="19">
+        <f t="shared" si="5"/>
+        <v>525311.22848222835</v>
+      </c>
+      <c r="K15" s="20">
         <f t="shared" si="6"/>
-        <v>525311.22848222835</v>
-      </c>
-      <c r="K15" s="20">
-        <f t="shared" si="7"/>
         <v>51.801523919775292</v>
       </c>
       <c r="L15" s="27">
@@ -28356,11 +28359,11 @@
         <v>30.553509847948479</v>
       </c>
       <c r="M15" s="19">
+        <f t="shared" si="7"/>
+        <v>662889.4882370549</v>
+      </c>
+      <c r="N15" s="20">
         <f t="shared" si="8"/>
-        <v>662889.4882370549</v>
-      </c>
-      <c r="N15" s="20">
-        <f t="shared" si="9"/>
         <v>10.286216196781886</v>
       </c>
       <c r="O15" s="27">
@@ -28368,11 +28371,11 @@
         <v>227.81130832016925</v>
       </c>
       <c r="P15" s="19">
+        <f t="shared" si="9"/>
+        <v>106521.5120908032</v>
+      </c>
+      <c r="Q15" s="23">
         <f t="shared" si="10"/>
-        <v>106521.5120908032</v>
-      </c>
-      <c r="Q15" s="23">
-        <f t="shared" si="11"/>
         <v>202.39087297252604</v>
       </c>
       <c r="R15" s="27">
@@ -28380,15 +28383,15 @@
         <v>128.80695591333978</v>
       </c>
       <c r="S15" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T15" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T15" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U15" s="181">
-        <f>SUM(B15*'Life Table - Male'!B59,U14)</f>
+        <f>SUM(B14*'Life Table - Male'!B59,U14)</f>
         <v>71.632512113915524</v>
       </c>
       <c r="V15" s="49">
@@ -28412,15 +28415,15 @@
         <v>13</v>
       </c>
       <c r="B16" s="15">
-        <f t="shared" si="2"/>
-        <v>799.5605319727448</v>
+        <f t="shared" si="13"/>
+        <v>777.42841596545884</v>
       </c>
       <c r="C16" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C15*(1-'Life Table - Male'!B60)</f>
         <v>309.20704157822627</v>
       </c>
       <c r="D16" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="20">
@@ -28432,11 +28435,11 @@
         <v>122.5946519983772</v>
       </c>
       <c r="G16" s="19">
+        <f t="shared" si="3"/>
+        <v>89046.392057911755</v>
+      </c>
+      <c r="H16" s="20">
         <f t="shared" si="4"/>
-        <v>89046.392057911755</v>
-      </c>
-      <c r="H16" s="20">
-        <f t="shared" si="5"/>
         <v>48.975515631851472</v>
       </c>
       <c r="I16" s="27">
@@ -28444,11 +28447,11 @@
         <v>78.027699189146745</v>
       </c>
       <c r="J16" s="19">
+        <f t="shared" si="5"/>
+        <v>255038.71833328353</v>
+      </c>
+      <c r="K16" s="20">
         <f t="shared" si="6"/>
-        <v>255038.71833328353</v>
-      </c>
-      <c r="K16" s="20">
-        <f t="shared" si="7"/>
         <v>25.149651391198795</v>
       </c>
       <c r="L16" s="27">
@@ -28456,11 +28459,11 @@
         <v>30.052513140955952</v>
       </c>
       <c r="M16" s="19">
+        <f t="shared" si="7"/>
+        <v>316514.49264607986</v>
+      </c>
+      <c r="N16" s="20">
         <f t="shared" si="8"/>
-        <v>316514.49264607986</v>
-      </c>
-      <c r="N16" s="20">
-        <f t="shared" si="9"/>
         <v>4.9114317824391698</v>
       </c>
       <c r="O16" s="27">
@@ -28468,11 +28471,11 @@
         <v>237.54651005875266</v>
       </c>
       <c r="P16" s="19">
+        <f t="shared" si="9"/>
+        <v>53919.204778403509</v>
+      </c>
+      <c r="Q16" s="23">
         <f t="shared" si="10"/>
-        <v>53919.204778403509</v>
-      </c>
-      <c r="Q16" s="23">
-        <f t="shared" si="11"/>
         <v>102.44648907896665</v>
       </c>
       <c r="R16" s="27">
@@ -28480,15 +28483,15 @@
         <v>142.40936016554053</v>
       </c>
       <c r="S16" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T16" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T16" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U16" s="181">
-        <f>SUM(B16*'Life Table - Male'!B60,U15)</f>
+        <f>SUM(B15*'Life Table - Male'!B60,U15)</f>
         <v>80.162223869000769</v>
       </c>
       <c r="V16" s="49">
@@ -28512,15 +28515,15 @@
         <v>14</v>
       </c>
       <c r="B17" s="15">
-        <f t="shared" si="2"/>
-        <v>777.42841596545884</v>
+        <f t="shared" si="13"/>
+        <v>755.06793449854672</v>
       </c>
       <c r="C17" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C16*(1-'Life Table - Male'!B61)</f>
         <v>281.1797237595494</v>
       </c>
       <c r="D17" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E17" s="20">
@@ -28532,11 +28535,11 @@
         <v>121.38232775898707</v>
       </c>
       <c r="G17" s="19">
+        <f t="shared" si="3"/>
+        <v>171195.77214544642</v>
+      </c>
+      <c r="H17" s="20">
         <f t="shared" si="4"/>
-        <v>171195.77214544642</v>
-      </c>
-      <c r="H17" s="20">
-        <f t="shared" si="5"/>
         <v>94.157674679995523</v>
       </c>
       <c r="I17" s="27">
@@ -28544,11 +28547,11 @@
         <v>77.730467140753717</v>
       </c>
       <c r="J17" s="19">
+        <f t="shared" si="5"/>
+        <v>493334.36046097323</v>
+      </c>
+      <c r="K17" s="20">
         <f t="shared" si="6"/>
-        <v>493334.36046097323</v>
-      </c>
-      <c r="K17" s="20">
-        <f t="shared" si="7"/>
         <v>48.648249434345971</v>
       </c>
       <c r="L17" s="27">
@@ -28556,11 +28559,11 @@
         <v>29.477495394422185</v>
       </c>
       <c r="M17" s="19">
+        <f t="shared" si="7"/>
+        <v>602831.80289010832</v>
+      </c>
+      <c r="N17" s="20">
         <f t="shared" si="8"/>
-        <v>602831.80289010832</v>
-      </c>
-      <c r="N17" s="20">
-        <f t="shared" si="9"/>
         <v>9.3542865965706472</v>
       </c>
       <c r="O17" s="27">
@@ -28568,11 +28571,11 @@
         <v>245.2979204448344</v>
       </c>
       <c r="P17" s="19">
+        <f t="shared" si="9"/>
+        <v>108113.88195757275</v>
+      </c>
+      <c r="Q17" s="23">
         <f t="shared" si="10"/>
-        <v>108113.88195757275</v>
-      </c>
-      <c r="Q17" s="23">
-        <f t="shared" si="11"/>
         <v>205.41637571938821</v>
       </c>
       <c r="R17" s="27">
@@ -28580,15 +28583,15 @@
         <v>155.77654971656415</v>
       </c>
       <c r="S17" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T17" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U17" s="181">
-        <f>SUM(B17*'Life Table - Male'!B61,U16)</f>
+        <f>SUM(B16*'Life Table - Male'!B61,U16)</f>
         <v>89.155515784889189</v>
       </c>
       <c r="V17" s="49">
@@ -28612,15 +28615,15 @@
         <v>15</v>
       </c>
       <c r="B18" s="15">
-        <f t="shared" si="2"/>
-        <v>755.06793449854672</v>
+        <f t="shared" si="13"/>
+        <v>732.49491675446313</v>
       </c>
       <c r="C18" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C17*(1-'Life Table - Male'!B62)</f>
         <v>255.43936213894943</v>
       </c>
       <c r="D18" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E18" s="20">
@@ -28632,11 +28635,11 @@
         <v>119.85081600682732</v>
       </c>
       <c r="G18" s="19">
+        <f t="shared" si="3"/>
+        <v>82056.190036509739</v>
+      </c>
+      <c r="H18" s="20">
         <f t="shared" si="4"/>
-        <v>82056.190036509739</v>
-      </c>
-      <c r="H18" s="20">
-        <f t="shared" si="5"/>
         <v>45.130904520080357</v>
       </c>
       <c r="I18" s="27">
@@ -28644,11 +28647,11 @@
         <v>77.158391682251221</v>
       </c>
       <c r="J18" s="19">
+        <f t="shared" si="5"/>
+        <v>237720.17060720865</v>
+      </c>
+      <c r="K18" s="20">
         <f t="shared" si="6"/>
-        <v>237720.17060720865</v>
-      </c>
-      <c r="K18" s="20">
-        <f t="shared" si="7"/>
         <v>23.44185015709974</v>
       </c>
       <c r="L18" s="27">
@@ -28656,11 +28659,11 @@
         <v>28.843586482825362</v>
       </c>
       <c r="M18" s="19">
+        <f t="shared" si="7"/>
+        <v>286343.68912180583</v>
+      </c>
+      <c r="N18" s="20">
         <f t="shared" si="8"/>
-        <v>286343.68912180583</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" si="9"/>
         <v>4.4432641415452627</v>
       </c>
       <c r="O18" s="27">
@@ -28668,11 +28671,11 @@
         <v>251.20276044360983</v>
       </c>
       <c r="P18" s="19">
+        <f t="shared" si="9"/>
+        <v>53745.831003255516</v>
+      </c>
+      <c r="Q18" s="23">
         <f t="shared" si="10"/>
-        <v>53745.831003255516</v>
-      </c>
-      <c r="Q18" s="23">
-        <f t="shared" si="11"/>
         <v>102.11707890618548</v>
       </c>
       <c r="R18" s="27">
@@ -28680,15 +28683,15 @@
         <v>168.87497501855998</v>
       </c>
       <c r="S18" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T18" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U18" s="181">
-        <f>SUM(B18*'Life Table - Male'!B62,U17)</f>
+        <f>SUM(B17*'Life Table - Male'!B62,U17)</f>
         <v>98.630108226976958</v>
       </c>
       <c r="V18" s="49">
@@ -28712,15 +28715,15 @@
         <v>16</v>
       </c>
       <c r="B19" s="15">
-        <f t="shared" si="2"/>
-        <v>732.49491675446313</v>
+        <f t="shared" si="13"/>
+        <v>709.7306142339088</v>
       </c>
       <c r="C19" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C18*(1-'Life Table - Male'!B63)</f>
         <v>231.80839087296411</v>
       </c>
       <c r="D19" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E19" s="20">
@@ -28732,11 +28735,11 @@
         <v>118.02603035275084</v>
       </c>
       <c r="G19" s="19">
+        <f t="shared" si="3"/>
+        <v>156906.49617754464</v>
+      </c>
+      <c r="H19" s="20">
         <f t="shared" si="4"/>
-        <v>156906.49617754464</v>
-      </c>
-      <c r="H19" s="20">
-        <f t="shared" si="5"/>
         <v>86.298572897649549</v>
       </c>
       <c r="I19" s="27">
@@ -28744,11 +28747,11 @@
         <v>76.338777982047191</v>
       </c>
       <c r="J19" s="19">
+        <f t="shared" si="5"/>
+        <v>456689.30514121155</v>
+      </c>
+      <c r="K19" s="20">
         <f t="shared" si="6"/>
-        <v>456689.30514121155</v>
-      </c>
-      <c r="K19" s="20">
-        <f t="shared" si="7"/>
         <v>45.034639812536142</v>
       </c>
       <c r="L19" s="27">
@@ -28756,11 +28759,11 @@
         <v>28.161694904719571</v>
       </c>
       <c r="M19" s="19">
+        <f t="shared" si="7"/>
+        <v>542862.59124663332</v>
+      </c>
+      <c r="N19" s="20">
         <f t="shared" si="8"/>
-        <v>542862.59124663332</v>
-      </c>
-      <c r="N19" s="20">
-        <f t="shared" si="9"/>
         <v>8.4237298641718947</v>
       </c>
       <c r="O19" s="27">
@@ -28768,11 +28771,11 @@
         <v>255.39572012142705</v>
       </c>
       <c r="P19" s="19">
+        <f t="shared" si="9"/>
+        <v>106102.77946532445</v>
+      </c>
+      <c r="Q19" s="23">
         <f t="shared" si="10"/>
-        <v>106102.77946532445</v>
-      </c>
-      <c r="Q19" s="23">
-        <f t="shared" si="11"/>
         <v>201.59528098411641</v>
       </c>
       <c r="R19" s="27">
@@ -28780,15 +28783,15 @@
         <v>181.67807916617042</v>
       </c>
       <c r="S19" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T19" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T19" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U19" s="181">
-        <f>SUM(B19*'Life Table - Male'!B63,U18)</f>
+        <f>SUM(B18*'Life Table - Male'!B63,U18)</f>
         <v>108.5913065999209</v>
       </c>
       <c r="V19" s="49">
@@ -28812,15 +28815,15 @@
         <v>17</v>
       </c>
       <c r="B20" s="15">
-        <f t="shared" si="2"/>
-        <v>709.7306142339088</v>
+        <f t="shared" si="13"/>
+        <v>686.83340696059008</v>
       </c>
       <c r="C20" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C19*(1-'Life Table - Male'!B64)</f>
         <v>210.13556736398832</v>
       </c>
       <c r="D20" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E20" s="20">
@@ -28832,11 +28835,11 @@
         <v>115.93795682967973</v>
       </c>
       <c r="G20" s="19">
+        <f t="shared" si="3"/>
+        <v>74820.66195157051</v>
+      </c>
+      <c r="H20" s="20">
         <f t="shared" si="4"/>
-        <v>74820.66195157051</v>
-      </c>
-      <c r="H20" s="20">
-        <f t="shared" si="5"/>
         <v>41.15136407336378</v>
       </c>
       <c r="I20" s="27">
@@ -28844,11 +28847,11 @@
         <v>75.298981176957525</v>
       </c>
       <c r="J20" s="19">
+        <f t="shared" si="5"/>
+        <v>218674.18544359281</v>
+      </c>
+      <c r="K20" s="20">
         <f t="shared" si="6"/>
-        <v>218674.18544359281</v>
-      </c>
-      <c r="K20" s="20">
-        <f t="shared" si="7"/>
         <v>21.563704397909845</v>
       </c>
       <c r="L20" s="27">
@@ -28856,11 +28859,11 @@
         <v>27.441247953875944</v>
       </c>
       <c r="M20" s="19">
+        <f t="shared" si="7"/>
+        <v>256783.8842087331</v>
+      </c>
+      <c r="N20" s="20">
         <f t="shared" si="8"/>
-        <v>256783.8842087331</v>
-      </c>
-      <c r="N20" s="20">
-        <f t="shared" si="9"/>
         <v>3.9845775135837895</v>
       </c>
       <c r="O20" s="27">
@@ -28868,11 +28871,11 @@
         <v>258.01965363608855</v>
       </c>
       <c r="P20" s="19">
+        <f t="shared" si="9"/>
+        <v>52035.377933668387</v>
+      </c>
+      <c r="Q20" s="23">
         <f t="shared" si="10"/>
-        <v>52035.377933668387</v>
-      </c>
-      <c r="Q20" s="23">
-        <f t="shared" si="11"/>
         <v>98.867218073969951</v>
       </c>
       <c r="R20" s="27">
@@ -28880,15 +28883,15 @@
         <v>194.16495778990614</v>
       </c>
       <c r="S20" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T20" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U20" s="181">
-        <f>SUM(B20*'Life Table - Male'!B64,U19)</f>
+        <f>SUM(B19*'Life Table - Male'!B64,U19)</f>
         <v>119.00163524950388</v>
       </c>
       <c r="V20" s="49">
@@ -28912,15 +28915,15 @@
         <v>18</v>
       </c>
       <c r="B21" s="15">
-        <f t="shared" si="2"/>
-        <v>686.83340696059008</v>
+        <f t="shared" si="13"/>
+        <v>663.87992015741497</v>
       </c>
       <c r="C21" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C20*(1-'Life Table - Male'!B65)</f>
         <v>190.28507737125838</v>
       </c>
       <c r="D21" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E21" s="20">
@@ -28932,11 +28935,11 @@
         <v>113.618405936299</v>
       </c>
       <c r="G21" s="19">
+        <f t="shared" si="3"/>
+        <v>142376.18980893842</v>
+      </c>
+      <c r="H21" s="20">
         <f t="shared" si="4"/>
-        <v>142376.18980893842</v>
-      </c>
-      <c r="H21" s="20">
-        <f t="shared" si="5"/>
         <v>78.306904394916117</v>
       </c>
       <c r="I21" s="27">
@@ -28944,11 +28947,11 @@
         <v>74.06580171947175</v>
       </c>
       <c r="J21" s="19">
+        <f t="shared" si="5"/>
+        <v>417656.18437242723</v>
+      </c>
+      <c r="K21" s="20">
         <f t="shared" si="6"/>
-        <v>417656.18437242723</v>
-      </c>
-      <c r="K21" s="20">
-        <f t="shared" si="7"/>
         <v>41.185540403392125</v>
       </c>
       <c r="L21" s="27">
@@ -28956,11 +28959,11 @@
         <v>26.690468958918654</v>
       </c>
       <c r="M21" s="19">
+        <f t="shared" si="7"/>
+        <v>484967.77460836194</v>
+      </c>
+      <c r="N21" s="20">
         <f t="shared" si="8"/>
-        <v>484967.77460836194</v>
-      </c>
-      <c r="N21" s="20">
-        <f t="shared" si="9"/>
         <v>7.525362019784926</v>
       </c>
       <c r="O21" s="27">
@@ -28968,11 +28971,11 @@
         <v>259.22016617146716</v>
       </c>
       <c r="P21" s="19">
+        <f t="shared" si="9"/>
+        <v>101509.68519634436</v>
+      </c>
+      <c r="Q21" s="23">
         <f t="shared" si="10"/>
-        <v>101509.68519634436</v>
-      </c>
-      <c r="Q21" s="23">
-        <f t="shared" si="11"/>
         <v>192.8684018730543</v>
       </c>
       <c r="R21" s="27">
@@ -28980,15 +28983,15 @@
         <v>206.31936293543987</v>
       </c>
       <c r="S21" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T21" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T21" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U21" s="181">
-        <f>SUM(B21*'Life Table - Male'!B65,U20)</f>
+        <f>SUM(B20*'Life Table - Male'!B65,U20)</f>
         <v>129.80071690714524</v>
       </c>
       <c r="V21" s="49">
@@ -29012,15 +29015,15 @@
         <v>19</v>
       </c>
       <c r="B22" s="15">
-        <f t="shared" si="2"/>
-        <v>663.87992015741497</v>
+        <f t="shared" si="13"/>
+        <v>640.94974800383352</v>
       </c>
       <c r="C22" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C21*(1-'Life Table - Male'!B66)</f>
         <v>172.12980307699544</v>
       </c>
       <c r="D22" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E22" s="20">
@@ -29032,11 +29035,11 @@
         <v>111.09880340454599</v>
       </c>
       <c r="G22" s="19">
+        <f t="shared" si="3"/>
+        <v>67581.968188946877</v>
+      </c>
+      <c r="H22" s="20">
         <f t="shared" si="4"/>
-        <v>67581.968188946877</v>
-      </c>
-      <c r="H22" s="20">
-        <f t="shared" si="5"/>
         <v>37.170082503920781</v>
       </c>
       <c r="I22" s="27">
@@ -29044,11 +29047,11 @@
         <v>72.664613231637418</v>
       </c>
       <c r="J22" s="19">
+        <f t="shared" si="5"/>
+        <v>198910.14513453952</v>
+      </c>
+      <c r="K22" s="20">
         <f t="shared" si="6"/>
-        <v>198910.14513453952</v>
-      </c>
-      <c r="K22" s="20">
-        <f t="shared" si="7"/>
         <v>19.614750422989314</v>
       </c>
       <c r="L22" s="27">
@@ -29056,11 +29059,11 @@
         <v>25.916433398326365</v>
       </c>
       <c r="M22" s="19">
+        <f t="shared" si="7"/>
+        <v>228593.92806621606</v>
+      </c>
+      <c r="N22" s="20">
         <f t="shared" si="8"/>
-        <v>228593.92806621606</v>
-      </c>
-      <c r="N22" s="20">
-        <f t="shared" si="9"/>
         <v>3.5471471596481798</v>
       </c>
       <c r="O22" s="27">
@@ -29068,11 +29071,11 @@
         <v>259.14009489232836</v>
       </c>
       <c r="P22" s="19">
+        <f t="shared" si="9"/>
+        <v>49261.325034603724</v>
+      </c>
+      <c r="Q22" s="23">
         <f t="shared" si="10"/>
-        <v>49261.325034603724</v>
-      </c>
-      <c r="Q22" s="23">
-        <f t="shared" si="11"/>
         <v>93.59651756574705</v>
       </c>
       <c r="R22" s="27">
@@ -29080,15 +29083,15 @@
         <v>218.12888254646438</v>
       </c>
       <c r="S22" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T22" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T22" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U22" s="181">
-        <f>SUM(B22*'Life Table - Male'!B66,U21)</f>
+        <f>SUM(B21*'Life Table - Male'!B66,U21)</f>
         <v>140.9213694497021</v>
       </c>
       <c r="V22" s="49">
@@ -29112,15 +29115,15 @@
         <v>20</v>
       </c>
       <c r="B23" s="15">
-        <f t="shared" si="2"/>
-        <v>640.94974800383352</v>
+        <f t="shared" si="13"/>
+        <v>618.09044310310992</v>
       </c>
       <c r="C23" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C22*(1-'Life Table - Male'!B67)</f>
         <v>155.54172969157875</v>
       </c>
       <c r="D23" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="20">
@@ -29132,11 +29135,11 @@
         <v>108.4041755384734</v>
       </c>
       <c r="G23" s="19">
+        <f t="shared" si="3"/>
+        <v>128044.29578285247</v>
+      </c>
+      <c r="H23" s="20">
         <f t="shared" si="4"/>
-        <v>128044.29578285247</v>
-      </c>
-      <c r="H23" s="20">
-        <f t="shared" si="5"/>
         <v>70.424362680568862</v>
       </c>
       <c r="I23" s="27">
@@ -29144,11 +29147,11 @@
         <v>71.115785124556922</v>
       </c>
       <c r="J23" s="19">
+        <f t="shared" si="5"/>
+        <v>378000.82524856698</v>
+      </c>
+      <c r="K23" s="20">
         <f t="shared" si="6"/>
-        <v>378000.82524856698</v>
-      </c>
-      <c r="K23" s="20">
-        <f t="shared" si="7"/>
         <v>37.275081378678131</v>
       </c>
       <c r="L23" s="27">
@@ -29156,11 +29159,11 @@
         <v>25.12407588960447</v>
       </c>
       <c r="M23" s="19">
+        <f t="shared" si="7"/>
+        <v>430300.96888099471</v>
+      </c>
+      <c r="N23" s="20">
         <f t="shared" si="8"/>
-        <v>430300.96888099471</v>
-      </c>
-      <c r="N23" s="20">
-        <f t="shared" si="9"/>
         <v>6.6770839998775049</v>
       </c>
       <c r="O23" s="27">
@@ -29168,11 +29171,11 @@
         <v>257.90467685889644</v>
       </c>
       <c r="P23" s="19">
+        <f t="shared" si="9"/>
+        <v>95197.044312021651</v>
+      </c>
+      <c r="Q23" s="23">
         <f t="shared" si="10"/>
-        <v>95197.044312021651</v>
-      </c>
-      <c r="Q23" s="23">
-        <f t="shared" si="11"/>
         <v>180.87438419284112</v>
       </c>
       <c r="R23" s="27">
@@ -29180,15 +29183,15 @@
         <v>229.58376858095585</v>
       </c>
       <c r="S23" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T23" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T23" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U23" s="181">
-        <f>SUM(B23*'Life Table - Male'!B67,U22)</f>
+        <f>SUM(B22*'Life Table - Male'!B67,U22)</f>
         <v>152.32578831593432</v>
       </c>
       <c r="V23" s="49">
@@ -29212,15 +29215,15 @@
         <v>21</v>
       </c>
       <c r="B24" s="15">
-        <f t="shared" si="2"/>
-        <v>618.09044310310992</v>
+        <f t="shared" si="13"/>
+        <v>595.31031199749077</v>
       </c>
       <c r="C24" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C23*(1-'Life Table - Male'!B68)</f>
         <v>140.39240073646212</v>
       </c>
       <c r="D24" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E24" s="20">
@@ -29232,11 +29235,11 @@
         <v>105.55160517887417</v>
       </c>
       <c r="G24" s="19">
+        <f t="shared" si="3"/>
+        <v>60521.801530605997</v>
+      </c>
+      <c r="H24" s="20">
         <f t="shared" si="4"/>
-        <v>60521.801530605997</v>
-      </c>
-      <c r="H24" s="20">
-        <f t="shared" si="5"/>
         <v>33.286990841833301</v>
       </c>
       <c r="I24" s="27">
@@ -29244,11 +29247,11 @@
         <v>69.433859297978572</v>
       </c>
       <c r="J24" s="19">
+        <f t="shared" si="5"/>
+        <v>179155.7797881607</v>
+      </c>
+      <c r="K24" s="20">
         <f t="shared" si="6"/>
-        <v>179155.7797881607</v>
-      </c>
-      <c r="K24" s="20">
-        <f t="shared" si="7"/>
         <v>17.666750506888068</v>
       </c>
       <c r="L24" s="27">
@@ -29256,11 +29259,11 @@
         <v>24.316142007274866</v>
       </c>
       <c r="M24" s="19">
+        <f t="shared" si="7"/>
+        <v>202166.72604718091</v>
+      </c>
+      <c r="N24" s="20">
         <f t="shared" si="8"/>
-        <v>202166.72604718091</v>
-      </c>
-      <c r="N24" s="20">
-        <f t="shared" si="9"/>
         <v>3.1370698869390137</v>
       </c>
       <c r="O24" s="27">
@@ -29268,11 +29271,11 @@
         <v>255.61630477690105</v>
       </c>
       <c r="P24" s="19">
+        <f t="shared" si="9"/>
+        <v>45802.119847791189</v>
+      </c>
+      <c r="Q24" s="23">
         <f t="shared" si="10"/>
-        <v>45802.119847791189</v>
-      </c>
-      <c r="Q24" s="23">
-        <f t="shared" si="11"/>
         <v>87.024027710803253</v>
       </c>
       <c r="R24" s="27">
@@ -29280,15 +29283,15 @@
         <v>240.67580940749528</v>
       </c>
       <c r="S24" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T24" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U24" s="181">
-        <f>SUM(B24*'Life Table - Male'!B68,U23)</f>
+        <f>SUM(B23*'Life Table - Male'!B68,U23)</f>
         <v>164.01387859501412</v>
       </c>
       <c r="V24" s="49">
@@ -29312,15 +29315,15 @@
         <v>22</v>
       </c>
       <c r="B25" s="15">
-        <f t="shared" si="2"/>
-        <v>595.31031199749077</v>
+        <f t="shared" si="13"/>
+        <v>572.539854432742</v>
       </c>
       <c r="C25" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C24*(1-'Life Table - Male'!B69)</f>
         <v>126.54666070090299</v>
       </c>
       <c r="D25" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E25" s="20">
@@ -29332,11 +29335,11 @@
         <v>102.54303369043694</v>
       </c>
       <c r="G25" s="19">
+        <f t="shared" si="3"/>
+        <v>114168.4059750173</v>
+      </c>
+      <c r="H25" s="20">
         <f t="shared" si="4"/>
-        <v>114168.4059750173</v>
-      </c>
-      <c r="H25" s="20">
-        <f t="shared" si="5"/>
         <v>62.792623286259506</v>
       </c>
       <c r="I25" s="27">
@@ -29344,11 +29347,11 @@
         <v>67.622913714505742</v>
       </c>
       <c r="J25" s="19">
+        <f t="shared" si="5"/>
+        <v>338802.15893213463</v>
+      </c>
+      <c r="K25" s="20">
         <f t="shared" si="6"/>
-        <v>338802.15893213463</v>
-      </c>
-      <c r="K25" s="20">
-        <f t="shared" si="7"/>
         <v>33.409657339141056</v>
       </c>
       <c r="L25" s="27">
@@ -29356,11 +29359,11 @@
         <v>23.491753952773589</v>
       </c>
       <c r="M25" s="19">
+        <f t="shared" si="7"/>
+        <v>379247.93215510377</v>
+      </c>
+      <c r="N25" s="20">
         <f t="shared" si="8"/>
-        <v>379247.93215510377</v>
-      </c>
-      <c r="N25" s="20">
-        <f t="shared" si="9"/>
         <v>5.884881705855058</v>
       </c>
       <c r="O25" s="27">
@@ -29368,11 +29371,11 @@
         <v>252.33549237412279</v>
       </c>
       <c r="P25" s="19">
+        <f t="shared" si="9"/>
+        <v>87794.667451046349</v>
+      </c>
+      <c r="Q25" s="23">
         <f t="shared" si="10"/>
-        <v>87794.667451046349</v>
-      </c>
-      <c r="Q25" s="23">
-        <f t="shared" si="11"/>
         <v>166.80986815698807</v>
       </c>
       <c r="R25" s="27">
@@ -29380,15 +29383,15 @@
         <v>251.39659094710279</v>
       </c>
       <c r="S25" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T25" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U25" s="181">
-        <f>SUM(B25*'Life Table - Male'!B69,U24)</f>
+        <f>SUM(B24*'Life Table - Male'!B69,U24)</f>
         <v>176.06355462015534</v>
       </c>
       <c r="V25" s="49">
@@ -29412,15 +29415,15 @@
         <v>23</v>
       </c>
       <c r="B26" s="15">
-        <f t="shared" si="2"/>
-        <v>572.539854432742</v>
+        <f t="shared" si="13"/>
+        <v>549.82049068106005</v>
       </c>
       <c r="C26" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C25*(1-'Life Table - Male'!B70)</f>
         <v>113.90621341360905</v>
       </c>
       <c r="D26" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E26" s="20">
@@ -29432,11 +29435,11 @@
         <v>99.398820745058671</v>
       </c>
       <c r="G26" s="19">
+        <f t="shared" si="3"/>
+        <v>53722.199760174488</v>
+      </c>
+      <c r="H26" s="20">
         <f t="shared" si="4"/>
-        <v>53722.199760174488</v>
-      </c>
-      <c r="H26" s="20">
-        <f t="shared" si="5"/>
         <v>29.547209868095969</v>
       </c>
       <c r="I26" s="27">
@@ -29444,11 +29447,11 @@
         <v>65.698758074241653</v>
       </c>
       <c r="J26" s="19">
+        <f t="shared" si="5"/>
+        <v>159787.28927182572</v>
+      </c>
+      <c r="K26" s="20">
         <f t="shared" si="6"/>
-        <v>159787.28927182572</v>
-      </c>
-      <c r="K26" s="20">
-        <f t="shared" si="7"/>
         <v>15.756802136527256</v>
       </c>
       <c r="L26" s="27">
@@ -29456,11 +29459,11 @@
         <v>22.654243747464449</v>
       </c>
       <c r="M26" s="19">
+        <f t="shared" si="7"/>
+        <v>177537.51084741435</v>
+      </c>
+      <c r="N26" s="20">
         <f t="shared" si="8"/>
-        <v>177537.51084741435</v>
-      </c>
-      <c r="N26" s="20">
-        <f t="shared" si="9"/>
         <v>2.7548924097012573</v>
       </c>
       <c r="O26" s="27">
@@ -29468,11 +29471,11 @@
         <v>248.16245470068623</v>
       </c>
       <c r="P26" s="19">
+        <f t="shared" si="9"/>
+        <v>41913.956022298531</v>
+      </c>
+      <c r="Q26" s="23">
         <f t="shared" si="10"/>
-        <v>41913.956022298531</v>
-      </c>
-      <c r="Q26" s="23">
-        <f t="shared" si="11"/>
         <v>79.63651644236721</v>
       </c>
       <c r="R26" s="27">
@@ -29480,15 +29483,15 @@
         <v>261.73936066551221</v>
       </c>
       <c r="S26" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T26" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T26" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U26" s="181">
-        <f>SUM(B26*'Life Table - Male'!B70,U25)</f>
+        <f>SUM(B25*'Life Table - Male'!B70,U25)</f>
         <v>188.44014865342794</v>
       </c>
       <c r="V26" s="49">
@@ -29512,15 +29515,15 @@
         <v>24</v>
       </c>
       <c r="B27" s="15">
-        <f t="shared" si="2"/>
-        <v>549.82049068106005</v>
+        <f t="shared" si="13"/>
+        <v>527.14884674994153</v>
       </c>
       <c r="C27" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C26*(1-'Life Table - Male'!B71)</f>
         <v>102.37067603129482</v>
       </c>
       <c r="D27" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E27" s="20">
@@ -29532,11 +29535,11 @@
         <v>96.13039029682956</v>
       </c>
       <c r="G27" s="19">
+        <f t="shared" si="3"/>
+        <v>100884.86842558866</v>
+      </c>
+      <c r="H27" s="20">
         <f t="shared" si="4"/>
-        <v>100884.86842558866</v>
-      </c>
-      <c r="H27" s="20">
-        <f t="shared" si="5"/>
         <v>55.486677634073772</v>
       </c>
       <c r="I27" s="27">
@@ -29544,11 +29547,11 @@
         <v>63.671048171481388</v>
       </c>
       <c r="J27" s="19">
+        <f t="shared" si="5"/>
+        <v>300690.59158703737</v>
+      </c>
+      <c r="K27" s="20">
         <f t="shared" si="6"/>
-        <v>300690.59158703737</v>
-      </c>
-      <c r="K27" s="20">
-        <f t="shared" si="7"/>
         <v>29.651433337055074</v>
       </c>
       <c r="L27" s="27">
@@ -29556,11 +29559,11 @@
         <v>21.804891609745738</v>
       </c>
       <c r="M27" s="19">
+        <f t="shared" si="7"/>
+        <v>331808.31168186344</v>
+      </c>
+      <c r="N27" s="20">
         <f t="shared" si="8"/>
-        <v>331808.31168186344</v>
-      </c>
-      <c r="N27" s="20">
-        <f t="shared" si="9"/>
         <v>5.148749664028915</v>
       </c>
       <c r="O27" s="27">
@@ -29568,11 +29571,11 @@
         <v>243.17184064059009</v>
       </c>
       <c r="P27" s="19">
+        <f t="shared" si="9"/>
+        <v>79749.621425920835</v>
+      </c>
+      <c r="Q27" s="23">
         <f t="shared" si="10"/>
-        <v>79749.621425920835</v>
-      </c>
-      <c r="Q27" s="23">
-        <f t="shared" si="11"/>
         <v>151.52428070924958</v>
       </c>
       <c r="R27" s="27">
@@ -29580,15 +29583,15 @@
         <v>271.69805521110322</v>
       </c>
       <c r="S27" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T27" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U27" s="181">
-        <f>SUM(B27*'Life Table - Male'!B71,U26)</f>
+        <f>SUM(B26*'Life Table - Male'!B71,U26)</f>
         <v>201.15309803895542</v>
       </c>
       <c r="V27" s="49">
@@ -29612,15 +29615,15 @@
         <v>25</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" si="2"/>
-        <v>527.14884674994153</v>
+        <f t="shared" si="13"/>
+        <v>504.5584303810748</v>
       </c>
       <c r="C28" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C27*(1-'Life Table - Male'!B72)</f>
         <v>91.854750706656105</v>
       </c>
       <c r="D28" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E28" s="20">
@@ -29632,11 +29635,11 @@
         <v>92.754954575148759</v>
       </c>
       <c r="G28" s="19">
+        <f t="shared" si="3"/>
+        <v>47253.635073816862</v>
+      </c>
+      <c r="H28" s="20">
         <f t="shared" si="4"/>
-        <v>47253.635073816862</v>
-      </c>
-      <c r="H28" s="20">
-        <f t="shared" si="5"/>
         <v>25.989499290599269</v>
       </c>
       <c r="I28" s="27">
@@ -29644,11 +29647,11 @@
         <v>61.553053689491335</v>
       </c>
       <c r="J28" s="19">
+        <f t="shared" si="5"/>
+        <v>141110.78998638244</v>
+      </c>
+      <c r="K28" s="20">
         <f t="shared" si="6"/>
-        <v>141110.78998638244</v>
-      </c>
-      <c r="K28" s="20">
-        <f t="shared" si="7"/>
         <v>13.915091790323824</v>
       </c>
       <c r="L28" s="27">
@@ -29656,11 +29659,11 @@
         <v>20.946332589072597</v>
       </c>
       <c r="M28" s="19">
+        <f t="shared" si="7"/>
+        <v>154729.84954895682</v>
+      </c>
+      <c r="N28" s="20">
         <f t="shared" si="8"/>
-        <v>154729.84954895682</v>
-      </c>
-      <c r="N28" s="20">
-        <f t="shared" si="9"/>
         <v>2.400980424035537</v>
       </c>
       <c r="O28" s="27">
@@ -29668,11 +29671,11 @@
         <v>237.449338820706</v>
       </c>
       <c r="P28" s="19">
+        <f t="shared" si="9"/>
+        <v>37802.37554608933</v>
+      </c>
+      <c r="Q28" s="23">
         <f t="shared" si="10"/>
-        <v>37802.37554608933</v>
-      </c>
-      <c r="Q28" s="23">
-        <f t="shared" si="11"/>
         <v>71.824513537569729</v>
       </c>
       <c r="R28" s="27">
@@ -29680,15 +29683,15 @@
         <v>281.26789506524648</v>
       </c>
       <c r="S28" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T28" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T28" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U28" s="181">
-        <f>SUM(B28*'Life Table - Male'!B72,U27)</f>
+        <f>SUM(B27*'Life Table - Male'!B72,U27)</f>
         <v>214.17367455367898</v>
       </c>
       <c r="V28" s="49">
@@ -29712,15 +29715,15 @@
         <v>26</v>
       </c>
       <c r="B29" s="15">
-        <f t="shared" si="2"/>
-        <v>504.5584303810748</v>
+        <f t="shared" si="13"/>
+        <v>482.09722526348219</v>
       </c>
       <c r="C29" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C28*(1-'Life Table - Male'!B73)</f>
         <v>82.281571430017806</v>
       </c>
       <c r="D29" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E29" s="20">
@@ -29732,11 +29735,11 @@
         <v>89.291699540179579</v>
       </c>
       <c r="G29" s="19">
+        <f t="shared" si="3"/>
+        <v>88328.725932382731</v>
+      </c>
+      <c r="H29" s="20">
         <f t="shared" si="4"/>
-        <v>88328.725932382731</v>
-      </c>
-      <c r="H29" s="20">
-        <f t="shared" si="5"/>
         <v>48.580799262810501</v>
       </c>
       <c r="I29" s="27">
@@ -29744,11 +29747,11 @@
         <v>59.359201597734447</v>
       </c>
       <c r="J29" s="19">
+        <f t="shared" si="5"/>
+        <v>264235.6685359556</v>
+      </c>
+      <c r="K29" s="20">
         <f t="shared" si="6"/>
-        <v>264235.6685359556</v>
-      </c>
-      <c r="K29" s="20">
-        <f t="shared" si="7"/>
         <v>26.056572869517844</v>
       </c>
       <c r="L29" s="27">
@@ -29756,11 +29759,11 @@
         <v>20.081686119099274</v>
       </c>
       <c r="M29" s="19">
+        <f t="shared" si="7"/>
+        <v>288044.14631844132</v>
+      </c>
+      <c r="N29" s="20">
         <f t="shared" si="8"/>
-        <v>288044.14631844132</v>
-      </c>
-      <c r="N29" s="20">
-        <f t="shared" si="9"/>
         <v>4.4696505463206408</v>
       </c>
       <c r="O29" s="27">
@@ -29768,11 +29771,11 @@
         <v>231.0830665764511</v>
       </c>
       <c r="P29" s="19">
+        <f t="shared" si="9"/>
+        <v>71434.666381214178</v>
+      </c>
+      <c r="Q29" s="23">
         <f t="shared" si="10"/>
-        <v>71434.666381214178</v>
-      </c>
-      <c r="Q29" s="23">
-        <f t="shared" si="11"/>
         <v>135.72586612430692</v>
       </c>
       <c r="R29" s="27">
@@ -29780,15 +29783,15 @@
         <v>290.4455903861965</v>
       </c>
       <c r="S29" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T29" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U29" s="181">
-        <f>SUM(B29*'Life Table - Male'!B73,U28)</f>
+        <f>SUM(B28*'Life Table - Male'!B73,U28)</f>
         <v>227.45718435032154</v>
       </c>
       <c r="V29" s="49">
@@ -29812,15 +29815,15 @@
         <v>27</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" si="2"/>
-        <v>482.09722526348219</v>
+        <f t="shared" si="13"/>
+        <v>459.74617967996682</v>
       </c>
       <c r="C30" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C29*(1-'Life Table - Male'!B74)</f>
         <v>73.568496073950357</v>
       </c>
       <c r="D30" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E30" s="20">
@@ -29832,11 +29835,11 @@
         <v>85.746718067113818</v>
       </c>
       <c r="G30" s="19">
+        <f t="shared" si="3"/>
+        <v>41175.716311069649</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" si="4"/>
-        <v>41175.716311069649</v>
-      </c>
-      <c r="H30" s="20">
-        <f t="shared" si="5"/>
         <v>22.646643971088309</v>
       </c>
       <c r="I30" s="27">
@@ -29844,11 +29847,11 @@
         <v>57.095081755510954</v>
       </c>
       <c r="J30" s="19">
+        <f t="shared" si="5"/>
+        <v>123377.18853297451</v>
+      </c>
+      <c r="K30" s="20">
         <f t="shared" si="6"/>
-        <v>123377.18853297451</v>
-      </c>
-      <c r="K30" s="20">
-        <f t="shared" si="7"/>
         <v>12.166361647001652</v>
       </c>
       <c r="L30" s="27">
@@ -29856,11 +29859,11 @@
         <v>19.211181627974742</v>
       </c>
       <c r="M30" s="19">
+        <f t="shared" si="7"/>
+        <v>133765.99882661761</v>
+      </c>
+      <c r="N30" s="20">
         <f t="shared" si="8"/>
-        <v>133765.99882661761</v>
-      </c>
-      <c r="N30" s="20">
-        <f t="shared" si="9"/>
         <v>2.0756792921371696</v>
       </c>
       <c r="O30" s="27">
@@ -29868,11 +29871,11 @@
         <v>224.12470215541691</v>
       </c>
       <c r="P30" s="19">
+        <f t="shared" si="9"/>
+        <v>33632.829345693215</v>
+      </c>
+      <c r="Q30" s="23">
         <f t="shared" si="10"/>
-        <v>33632.829345693215</v>
-      </c>
-      <c r="Q30" s="23">
-        <f t="shared" si="11"/>
         <v>63.902375756817115</v>
       </c>
       <c r="R30" s="27">
@@ -29880,15 +29883,15 @@
         <v>299.22800956467125</v>
       </c>
       <c r="S30" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T30" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T30" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U30" s="181">
-        <f>SUM(B30*'Life Table - Male'!B74,U29)</f>
+        <f>SUM(B29*'Life Table - Male'!B74,U29)</f>
         <v>241.02581075536224</v>
       </c>
       <c r="V30" s="49">
@@ -29912,15 +29915,15 @@
         <v>28</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" si="2"/>
-        <v>459.74617967996682</v>
+        <f t="shared" si="13"/>
+        <v>437.42466334390957</v>
       </c>
       <c r="C31" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C30*(1-'Life Table - Male'!B75)</f>
         <v>65.631002697181913</v>
       </c>
       <c r="D31" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E31" s="20">
@@ -29932,11 +29935,11 @@
         <v>82.113656812079086</v>
       </c>
       <c r="G31" s="19">
+        <f t="shared" si="3"/>
+        <v>76565.270422131463</v>
+      </c>
+      <c r="H31" s="20">
         <f t="shared" si="4"/>
-        <v>76565.270422131463</v>
-      </c>
-      <c r="H31" s="20">
-        <f t="shared" si="5"/>
         <v>42.110898732172309</v>
       </c>
       <c r="I31" s="27">
@@ -29944,11 +29947,11 @@
         <v>54.757830998125876</v>
       </c>
       <c r="J31" s="19">
+        <f t="shared" si="5"/>
+        <v>229760.39983983108</v>
+      </c>
+      <c r="K31" s="20">
         <f t="shared" si="6"/>
-        <v>229760.39983983108</v>
-      </c>
-      <c r="K31" s="20">
-        <f t="shared" si="7"/>
         <v>22.656928317538902</v>
       </c>
       <c r="L31" s="27">
@@ -29956,11 +29959,11 @@
         <v>18.332359935815813</v>
       </c>
       <c r="M31" s="19">
+        <f t="shared" si="7"/>
+        <v>247857.92256239045</v>
+      </c>
+      <c r="N31" s="20">
         <f t="shared" si="8"/>
-        <v>247857.92256239045</v>
-      </c>
-      <c r="N31" s="20">
-        <f t="shared" si="9"/>
         <v>3.846071212175024</v>
       </c>
       <c r="O31" s="27">
@@ -29968,11 +29971,11 @@
         <v>216.58981290070687</v>
       </c>
       <c r="P31" s="19">
+        <f t="shared" si="9"/>
+        <v>63110.91479495394</v>
+      </c>
+      <c r="Q31" s="23">
         <f t="shared" si="10"/>
-        <v>63110.91479495394</v>
-      </c>
-      <c r="Q31" s="23">
-        <f t="shared" si="11"/>
         <v>119.91073811041248</v>
       </c>
       <c r="R31" s="27">
@@ -29980,15 +29983,15 @@
         <v>307.61094122519125</v>
       </c>
       <c r="S31" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T31" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U31" s="181">
-        <f>SUM(B31*'Life Table - Male'!B75,U30)</f>
+        <f>SUM(B30*'Life Table - Male'!B75,U30)</f>
         <v>254.96439543089949</v>
       </c>
       <c r="V31" s="49">
@@ -30012,15 +30015,15 @@
         <v>29</v>
       </c>
       <c r="B32" s="15">
-        <f t="shared" si="2"/>
-        <v>437.42466334390957</v>
+        <f t="shared" si="13"/>
+        <v>415.23248985449447</v>
       </c>
       <c r="C32" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C31*(1-'Life Table - Male'!B76)</f>
         <v>58.418940447553879</v>
       </c>
       <c r="D32" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E32" s="20">
@@ -30032,11 +30035,11 @@
         <v>78.419153835748872</v>
       </c>
       <c r="G32" s="19">
+        <f t="shared" si="3"/>
+        <v>35495.341509282844</v>
+      </c>
+      <c r="H32" s="20">
         <f t="shared" si="4"/>
-        <v>35495.341509282844</v>
-      </c>
-      <c r="H32" s="20">
-        <f t="shared" si="5"/>
         <v>19.522437830105563</v>
       </c>
       <c r="I32" s="27">
@@ -30044,11 +30047,11 @@
         <v>52.366440826446656</v>
       </c>
       <c r="J32" s="19">
+        <f t="shared" si="5"/>
+        <v>106663.24162259196</v>
+      </c>
+      <c r="K32" s="20">
         <f t="shared" si="6"/>
-        <v>106663.24162259196</v>
-      </c>
-      <c r="K32" s="20">
-        <f t="shared" si="7"/>
         <v>10.518180771116706</v>
       </c>
       <c r="L32" s="27">
@@ -30056,11 +30059,11 @@
         <v>17.450223763789531</v>
       </c>
       <c r="M32" s="19">
+        <f t="shared" si="7"/>
+        <v>114529.7228212098</v>
+      </c>
+      <c r="N32" s="20">
         <f t="shared" si="8"/>
-        <v>114529.7228212098</v>
-      </c>
-      <c r="N32" s="20">
-        <f t="shared" si="9"/>
         <v>1.7771853541222211</v>
       </c>
       <c r="O32" s="27">
@@ -30068,11 +30071,11 @@
         <v>208.57773098095555</v>
       </c>
       <c r="P32" s="19">
+        <f t="shared" si="9"/>
+        <v>29503.067132948396</v>
+      </c>
+      <c r="Q32" s="23">
         <f t="shared" si="10"/>
-        <v>29503.067132948396</v>
-      </c>
-      <c r="Q32" s="23">
-        <f t="shared" si="11"/>
         <v>56.055827552601947</v>
       </c>
       <c r="R32" s="27">
@@ -30080,15 +30083,15 @@
         <v>315.59249967655268</v>
       </c>
       <c r="S32" s="19">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="23">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T32" s="23">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U32" s="181">
-        <f>SUM(B32*'Life Table - Male'!B76,U31)</f>
+        <f>SUM(B31*'Life Table - Male'!B76,U31)</f>
         <v>269.17501046895308</v>
       </c>
       <c r="V32" s="49">
@@ -30111,16 +30114,16 @@
       <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="16">
-        <f t="shared" si="2"/>
-        <v>415.23248985449447</v>
+      <c r="B33" s="239">
+        <f t="shared" si="13"/>
+        <v>392.52885530143266</v>
       </c>
       <c r="C33" s="28">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C32*(1-'Life Table - Male'!B77)</f>
         <v>51.786135735655236</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E33" s="22">
@@ -30132,11 +30135,11 @@
         <v>74.548987318520659</v>
       </c>
       <c r="G33" s="21">
+        <f t="shared" si="3"/>
+        <v>16380.371045626538</v>
+      </c>
+      <c r="H33" s="22">
         <f t="shared" si="4"/>
-        <v>16380.371045626538</v>
-      </c>
-      <c r="H33" s="22">
-        <f t="shared" si="5"/>
         <v>9.0092040750945976</v>
       </c>
       <c r="I33" s="28">
@@ -30144,11 +30147,11 @@
         <v>49.845682536134824</v>
       </c>
       <c r="J33" s="21">
+        <f t="shared" si="5"/>
+        <v>49285.826937409962</v>
+      </c>
+      <c r="K33" s="22">
         <f t="shared" si="6"/>
-        <v>49285.826937409962</v>
-      </c>
-      <c r="K33" s="22">
-        <f t="shared" si="7"/>
         <v>4.8601301563279264</v>
       </c>
       <c r="L33" s="28">
@@ -30156,11 +30159,11 @@
         <v>16.538544041893456</v>
       </c>
       <c r="M33" s="21">
+        <f t="shared" si="7"/>
+        <v>52692.313024264811</v>
+      </c>
+      <c r="N33" s="22">
         <f t="shared" si="8"/>
-        <v>52692.313024264811</v>
-      </c>
-      <c r="N33" s="22">
-        <f t="shared" si="9"/>
         <v>0.81763934003169525</v>
       </c>
       <c r="O33" s="28">
@@ -30168,11 +30171,11 @@
         <v>199.80950566922849</v>
       </c>
       <c r="P33" s="21">
+        <f t="shared" si="9"/>
+        <v>13719.811793523446</v>
+      </c>
+      <c r="Q33" s="24">
         <f t="shared" si="10"/>
-        <v>13719.811793523446</v>
-      </c>
-      <c r="Q33" s="24">
-        <f t="shared" si="11"/>
         <v>26.067642407694546</v>
       </c>
       <c r="R33" s="28">
@@ -30180,15 +30183,15 @@
         <v>323.15883381196892</v>
       </c>
       <c r="S33" s="21">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T33" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T33" s="24">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
       <c r="U33" s="184">
-        <f>SUM(B33*'Life Table - Male'!B77,U32)</f>
+        <f>SUM(B32*'Life Table - Male'!B77,U32)</f>
         <v>284.31231088659865</v>
       </c>
       <c r="V33" s="49">
@@ -32333,36 +32336,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -37423,8 +37426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11C99E20-C0FA-194C-8EFA-98BEDE732E0E}">
   <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X34" sqref="X34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P39" sqref="P39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -37448,36 +37451,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
       <c r="U1" s="165" t="s">
         <v>264</v>
       </c>
@@ -37643,8 +37646,8 @@
         <v>1</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM(C3,F3,I3,L3,O3)</f>
-        <v>1000</v>
+        <f>SUM(C4,F4,I4,L4,O4)</f>
+        <v>995.76900000000001</v>
       </c>
       <c r="C4" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C3*(1-'Life Table - Male'!B48)</f>
@@ -37719,11 +37722,11 @@
         <v>0</v>
       </c>
       <c r="U4" s="181">
-        <f>SUM(B4*'Life Table - Male'!B48,U3)</f>
+        <f>SUM(B3*'Life Table - Male'!B48,U3)</f>
         <v>4.2310000000000008</v>
       </c>
       <c r="V4" s="49">
-        <f>SUM(C4,F4,I4,L4,O4,R4-R3,U4-U3)-B4</f>
+        <f>SUM(C4,F4,I4,L4,O4,R4-R3,U4-U3)-B3</f>
         <v>0</v>
       </c>
       <c r="W4" s="54">
@@ -37743,8 +37746,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="15">
-        <f>SUM(C4,F4,I4,L4,O4)</f>
-        <v>995.76900000000001</v>
+        <f t="shared" ref="B5:B33" si="13">SUM(C5,F5,I5,L5,O5)</f>
+        <v>986.81237400165742</v>
       </c>
       <c r="C5" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C4*(1-'Life Table - Male'!B49)</f>
@@ -37819,22 +37822,22 @@
         <v>0</v>
       </c>
       <c r="U5" s="181">
-        <f>SUM(B5*'Life Table - Male'!B49,U4)</f>
+        <f>SUM(B4*'Life Table - Male'!B49,U4)</f>
         <v>8.7268970350000004</v>
       </c>
       <c r="V5" s="49">
-        <f t="shared" ref="V5:V33" si="13">SUM(C5,F5,I5,L5,O5,R5-R4,U5-U4)-B5</f>
+        <f t="shared" ref="V5:V33" si="14">SUM(C5,F5,I5,L5,O5,R5-R4,U5-U4)-B4</f>
         <v>0</v>
       </c>
       <c r="W5" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X5" s="13">
-        <f t="shared" ref="X5:Y33" si="14">SUM(D5,G5,J5,M5,P5,S5)</f>
+        <f t="shared" ref="X5:Y33" si="15">SUM(D5,G5,J5,M5,P5,S5)</f>
         <v>1185242.0799545189</v>
       </c>
       <c r="Y5" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1200.623055515151</v>
       </c>
     </row>
@@ -37843,8 +37846,8 @@
         <v>3</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B33" si="15">SUM(C5,F5,I5,L5,O5)</f>
-        <v>986.81237400165742</v>
+        <f t="shared" si="13"/>
+        <v>974.40969523029605</v>
       </c>
       <c r="C6" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C5*(1-'Life Table - Male'!B50)</f>
@@ -37919,22 +37922,22 @@
         <v>0</v>
       </c>
       <c r="U6" s="181">
-        <f>SUM(B6*'Life Table - Male'!B50,U5)</f>
+        <f>SUM(B5*'Life Table - Male'!B50,U5)</f>
         <v>13.494187613802008</v>
       </c>
       <c r="V6" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W6" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>873345.09839222161</v>
       </c>
       <c r="Y6" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>569.31670451792047</v>
       </c>
     </row>
@@ -37943,8 +37946,8 @@
         <v>4</v>
       </c>
       <c r="B7" s="15">
-        <f t="shared" si="15"/>
-        <v>974.40969523029605</v>
+        <f t="shared" si="13"/>
+        <v>959.44739657890398</v>
       </c>
       <c r="C7" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C6*(1-'Life Table - Male'!B51)</f>
@@ -38019,22 +38022,22 @@
         <v>0</v>
       </c>
       <c r="U7" s="181">
-        <f>SUM(B7*'Life Table - Male'!B51,U6)</f>
+        <f>SUM(B6*'Life Table - Male'!B51,U6)</f>
         <v>18.542604244790173</v>
       </c>
       <c r="V7" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W7" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2245493.2367536668</v>
       </c>
       <c r="Y7" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1079.5806081605267</v>
       </c>
     </row>
@@ -38043,8 +38046,8 @@
         <v>5</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" si="15"/>
-        <v>959.44739657890398</v>
+        <f t="shared" si="13"/>
+        <v>942.62902464182855</v>
       </c>
       <c r="C8" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C7*(1-'Life Table - Male'!B52)</f>
@@ -38119,22 +38122,22 @@
         <v>0</v>
       </c>
       <c r="U8" s="181">
-        <f>SUM(B8*'Life Table - Male'!B52,U7)</f>
+        <f>SUM(B7*'Life Table - Male'!B52,U7)</f>
         <v>23.886726243734667</v>
       </c>
       <c r="V8" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W8" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1335422.9730314841</v>
       </c>
       <c r="Y8" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>511.70572036283085</v>
       </c>
     </row>
@@ -38143,8 +38146,8 @@
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <f t="shared" si="15"/>
-        <v>942.62902464182855</v>
+        <f t="shared" si="13"/>
+        <v>924.54256420592617</v>
       </c>
       <c r="C9" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C8*(1-'Life Table - Male'!B53)</f>
@@ -38219,22 +38222,22 @@
         <v>0</v>
       </c>
       <c r="U9" s="181">
-        <f>SUM(B9*'Life Table - Male'!B53,U8)</f>
+        <f>SUM(B8*'Life Table - Male'!B53,U8)</f>
         <v>29.528360956216012</v>
       </c>
       <c r="V9" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W9" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3022048.6857290119</v>
       </c>
       <c r="Y9" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>970.06546017739697</v>
       </c>
     </row>
@@ -38243,8 +38246,8 @@
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <f t="shared" si="15"/>
-        <v>924.54256420592617</v>
+        <f t="shared" si="13"/>
+        <v>905.63669017154666</v>
       </c>
       <c r="C10" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C9*(1-'Life Table - Male'!B54)</f>
@@ -38319,22 +38322,22 @@
         <v>0</v>
       </c>
       <c r="U10" s="181">
-        <f>SUM(B10*'Life Table - Male'!B54,U9)</f>
+        <f>SUM(B9*'Life Table - Male'!B54,U9)</f>
         <v>35.491660495344235</v>
       </c>
       <c r="V10" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W10" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1651861.4832328625</v>
       </c>
       <c r="Y10" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>459.71910702479715</v>
       </c>
     </row>
@@ -38343,8 +38346,8 @@
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <f t="shared" si="15"/>
-        <v>905.63669017154666</v>
+        <f t="shared" si="13"/>
+        <v>886.21833298642298</v>
       </c>
       <c r="C11" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C10*(1-'Life Table - Male'!B55)</f>
@@ -38419,22 +38422,22 @@
         <v>0</v>
       </c>
       <c r="U11" s="181">
-        <f>SUM(B11*'Life Table - Male'!B55,U10)</f>
+        <f>SUM(B10*'Life Table - Male'!B55,U10)</f>
         <v>41.83473987330575</v>
       </c>
       <c r="V11" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W11" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3522681.8387280274</v>
       </c>
       <c r="Y11" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>871.37548490575659</v>
       </c>
     </row>
@@ -38443,8 +38446,8 @@
         <v>9</v>
       </c>
       <c r="B12" s="15">
-        <f t="shared" si="15"/>
-        <v>886.21833298642298</v>
+        <f t="shared" si="13"/>
+        <v>866.49495403565334</v>
       </c>
       <c r="C12" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C11*(1-'Life Table - Male'!B56)</f>
@@ -38519,22 +38522,22 @@
         <v>0</v>
       </c>
       <c r="U12" s="181">
-        <f>SUM(B12*'Life Table - Male'!B56,U11)</f>
+        <f>SUM(B11*'Life Table - Male'!B56,U11)</f>
         <v>48.620513648982794</v>
       </c>
       <c r="V12" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W12" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1843135.8675442315</v>
       </c>
       <c r="Y12" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>412.85491871853856</v>
       </c>
     </row>
@@ -38543,8 +38546,8 @@
         <v>10</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" si="15"/>
-        <v>866.49495403565334</v>
+        <f t="shared" si="13"/>
+        <v>846.6240889717094</v>
       </c>
       <c r="C13" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C12*(1-'Life Table - Male'!B57)</f>
@@ -38619,22 +38622,22 @@
         <v>0</v>
       </c>
       <c r="U13" s="181">
-        <f>SUM(B13*'Life Table - Male'!B57,U12)</f>
+        <f>SUM(B12*'Life Table - Male'!B57,U12)</f>
         <v>55.882607858755605</v>
       </c>
       <c r="V13" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W13" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3801648.9783676378</v>
       </c>
       <c r="Y13" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>782.29676641256094</v>
       </c>
     </row>
@@ -38643,8 +38646,8 @@
         <v>11</v>
       </c>
       <c r="B14" s="15">
-        <f t="shared" si="15"/>
-        <v>846.6240889717094</v>
+        <f t="shared" si="13"/>
+        <v>826.7545596399159</v>
       </c>
       <c r="C14" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C13*(1-'Life Table - Male'!B58)</f>
@@ -38719,22 +38722,22 @@
         <v>0</v>
       </c>
       <c r="U14" s="181">
-        <f>SUM(B14*'Life Table - Male'!B58,U13)</f>
+        <f>SUM(B13*'Life Table - Male'!B58,U13)</f>
         <v>63.599586429732739</v>
       </c>
       <c r="V14" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W14" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1937778.0728679087</v>
       </c>
       <c r="Y14" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>370.51879042448172</v>
       </c>
     </row>
@@ -38743,8 +38746,8 @@
         <v>12</v>
       </c>
       <c r="B15" s="15">
-        <f t="shared" si="15"/>
-        <v>826.7545596399159</v>
+        <f t="shared" si="13"/>
+        <v>806.98577637667063</v>
       </c>
       <c r="C15" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C14*(1-'Life Table - Male'!B59)</f>
@@ -38819,22 +38822,22 @@
         <v>0</v>
       </c>
       <c r="U15" s="181">
-        <f>SUM(B15*'Life Table - Male'!B59,U14)</f>
+        <f>SUM(B14*'Life Table - Male'!B59,U14)</f>
         <v>71.750559633222665</v>
       </c>
       <c r="V15" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W15" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3913984.7673127064</v>
       </c>
       <c r="Y15" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>701.82815972299272</v>
       </c>
     </row>
@@ -38843,8 +38846,8 @@
         <v>13</v>
       </c>
       <c r="B16" s="15">
-        <f t="shared" si="15"/>
-        <v>806.98577637667063</v>
+        <f t="shared" si="13"/>
+        <v>787.3367274111381</v>
       </c>
       <c r="C16" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C15*(1-'Life Table - Male'!B60)</f>
@@ -38919,22 +38922,22 @@
         <v>0</v>
       </c>
       <c r="U16" s="181">
-        <f>SUM(B16*'Life Table - Male'!B60,U15)</f>
+        <f>SUM(B15*'Life Table - Male'!B60,U15)</f>
         <v>80.359483895608989</v>
       </c>
       <c r="V16" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W16" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1960980.4530614759</v>
       </c>
       <c r="Y16" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>332.26306391826779</v>
       </c>
     </row>
@@ -38943,8 +38946,8 @@
         <v>14</v>
       </c>
       <c r="B17" s="15">
-        <f t="shared" si="15"/>
-        <v>787.3367274111381</v>
+        <f t="shared" si="13"/>
+        <v>767.78410416935344</v>
       </c>
       <c r="C17" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C16*(1-'Life Table - Male'!B61)</f>
@@ -39019,22 +39022,22 @@
         <v>0</v>
       </c>
       <c r="U17" s="181">
-        <f>SUM(B17*'Life Table - Male'!B61,U16)</f>
+        <f>SUM(B16*'Life Table - Male'!B61,U16)</f>
         <v>89.467395158301031</v>
       </c>
       <c r="V17" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W17" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3903727.6751480005</v>
       </c>
       <c r="Y17" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>628.98205721939985</v>
       </c>
     </row>
@@ -39043,8 +39046,8 @@
         <v>15</v>
       </c>
       <c r="B18" s="15">
-        <f t="shared" si="15"/>
-        <v>767.78410416935344</v>
+        <f t="shared" si="13"/>
+        <v>748.30077437923092</v>
       </c>
       <c r="C18" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C17*(1-'Life Table - Male'!B62)</f>
@@ -39119,22 +39122,22 @@
         <v>0</v>
       </c>
       <c r="U18" s="181">
-        <f>SUM(B18*'Life Table - Male'!B62,U17)</f>
+        <f>SUM(B17*'Life Table - Male'!B62,U17)</f>
         <v>99.101550097418084</v>
       </c>
       <c r="V18" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1931495.1326807884</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>297.53363251997462</v>
       </c>
     </row>
@@ -39143,8 +39146,8 @@
         <v>16</v>
       </c>
       <c r="B19" s="15">
-        <f t="shared" si="15"/>
-        <v>748.30077437923092</v>
+        <f t="shared" si="13"/>
+        <v>728.85923433509993</v>
       </c>
       <c r="C19" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C18*(1-'Life Table - Male'!B63)</f>
@@ -39219,22 +39222,22 @@
         <v>0</v>
       </c>
       <c r="U19" s="181">
-        <f>SUM(B19*'Life Table - Male'!B63,U18)</f>
+        <f>SUM(B18*'Life Table - Male'!B63,U18)</f>
         <v>109.27769232820124</v>
       </c>
       <c r="V19" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W19" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3803001.5183751415</v>
       </c>
       <c r="Y19" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>562.67094256505129</v>
       </c>
     </row>
@@ -39243,8 +39246,8 @@
         <v>17</v>
       </c>
       <c r="B20" s="15">
-        <f t="shared" si="15"/>
-        <v>728.85923433509993</v>
+        <f t="shared" si="13"/>
+        <v>709.46685496331543</v>
       </c>
       <c r="C20" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C19*(1-'Life Table - Male'!B64)</f>
@@ -39319,22 +39322,22 @@
         <v>0</v>
       </c>
       <c r="U20" s="181">
-        <f>SUM(B20*'Life Table - Male'!B64,U19)</f>
+        <f>SUM(B19*'Life Table - Male'!B64,U19)</f>
         <v>119.96859957742849</v>
       </c>
       <c r="V20" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W20" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1863403.4551536369</v>
       </c>
       <c r="Y20" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>265.86114024100664</v>
       </c>
     </row>
@@ -39343,8 +39346,8 @@
         <v>18</v>
       </c>
       <c r="B21" s="15">
-        <f t="shared" si="15"/>
-        <v>709.46685496331543</v>
+        <f t="shared" si="13"/>
+        <v>690.14931918182083</v>
       </c>
       <c r="C21" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C20*(1-'Life Table - Male'!B65)</f>
@@ -39419,22 +39422,22 @@
         <v>0</v>
       </c>
       <c r="U21" s="181">
-        <f>SUM(B21*'Life Table - Male'!B65,U20)</f>
+        <f>SUM(B20*'Life Table - Male'!B65,U20)</f>
         <v>131.12354693801672</v>
       </c>
       <c r="V21" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W21" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X21" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3637210.6436608774</v>
       </c>
       <c r="Y21" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>502.17149710826925</v>
       </c>
     </row>
@@ -39443,8 +39446,8 @@
         <v>19</v>
       </c>
       <c r="B22" s="15">
-        <f t="shared" si="15"/>
-        <v>690.14931918182083</v>
+        <f t="shared" si="13"/>
+        <v>670.9368958867783</v>
       </c>
       <c r="C22" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C21*(1-'Life Table - Male'!B66)</f>
@@ -39519,22 +39522,22 @@
         <v>0</v>
       </c>
       <c r="U22" s="181">
-        <f>SUM(B22*'Life Table - Male'!B66,U21)</f>
+        <f>SUM(B21*'Life Table - Male'!B66,U21)</f>
         <v>142.68423818363141</v>
       </c>
       <c r="V22" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W22" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1768369.945274719</v>
       </c>
       <c r="Y22" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>236.98809825542438</v>
       </c>
     </row>
@@ -39543,8 +39546,8 @@
         <v>20</v>
       </c>
       <c r="B23" s="15">
-        <f t="shared" si="15"/>
-        <v>670.9368958867783</v>
+        <f t="shared" si="13"/>
+        <v>651.82896237997568</v>
       </c>
       <c r="C23" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C22*(1-'Life Table - Male'!B67)</f>
@@ -39619,22 +39622,22 @@
         <v>0</v>
       </c>
       <c r="U23" s="181">
-        <f>SUM(B23*'Life Table - Male'!B67,U22)</f>
+        <f>SUM(B22*'Life Table - Male'!B67,U22)</f>
         <v>154.62221837214486</v>
       </c>
       <c r="V23" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W23" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3427486.3466626829</v>
       </c>
       <c r="Y23" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>447.07528150947246</v>
       </c>
     </row>
@@ -39643,8 +39646,8 @@
         <v>21</v>
       </c>
       <c r="B24" s="15">
-        <f t="shared" si="15"/>
-        <v>651.82896237997568</v>
+        <f t="shared" si="13"/>
+        <v>632.78603897954895</v>
       </c>
       <c r="C24" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C23*(1-'Life Table - Male'!B68)</f>
@@ -39719,22 +39722,22 @@
         <v>0</v>
       </c>
       <c r="U24" s="181">
-        <f>SUM(B24*'Life Table - Male'!B68,U23)</f>
+        <f>SUM(B23*'Life Table - Male'!B68,U23)</f>
         <v>166.94830405075021</v>
       </c>
       <c r="V24" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W24" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X24" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1655546.345349604</v>
       </c>
       <c r="Y24" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>210.69294843399385</v>
       </c>
     </row>
@@ -39743,8 +39746,8 @@
         <v>22</v>
       </c>
       <c r="B25" s="15">
-        <f t="shared" si="15"/>
-        <v>632.78603897954895</v>
+        <f t="shared" si="13"/>
+        <v>613.68732095618373</v>
       </c>
       <c r="C25" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C24*(1-'Life Table - Male'!B69)</f>
@@ -39819,22 +39822,22 @@
         <v>0</v>
       </c>
       <c r="U25" s="181">
-        <f>SUM(B25*'Life Table - Male'!B69,U24)</f>
+        <f>SUM(B24*'Life Table - Male'!B69,U24)</f>
         <v>179.75652626573526</v>
       </c>
       <c r="V25" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W25" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X25" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3188564.0522818761</v>
       </c>
       <c r="Y25" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>396.77900942907672</v>
       </c>
     </row>
@@ -39843,8 +39846,8 @@
         <v>23</v>
       </c>
       <c r="B26" s="15">
-        <f t="shared" si="15"/>
-        <v>613.68732095618373</v>
+        <f t="shared" si="13"/>
+        <v>594.53130678304433</v>
       </c>
       <c r="C26" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C25*(1-'Life Table - Male'!B70)</f>
@@ -39919,22 +39922,22 @@
         <v>0</v>
       </c>
       <c r="U26" s="181">
-        <f>SUM(B26*'Life Table - Male'!B70,U25)</f>
+        <f>SUM(B25*'Life Table - Male'!B70,U25)</f>
         <v>193.02260508284508</v>
       </c>
       <c r="V26" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W26" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X26" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1530672.9619371537</v>
       </c>
       <c r="Y26" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>186.60613146801617</v>
       </c>
     </row>
@@ -39943,8 +39946,8 @@
         <v>24</v>
       </c>
       <c r="B27" s="15">
-        <f t="shared" si="15"/>
-        <v>594.53130678304433</v>
+        <f t="shared" si="13"/>
+        <v>575.2711097969559</v>
       </c>
       <c r="C27" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C26*(1-'Life Table - Male'!B71)</f>
@@ -40019,22 +40022,22 @@
         <v>0</v>
       </c>
       <c r="U27" s="181">
-        <f>SUM(B27*'Life Table - Male'!B71,U26)</f>
+        <f>SUM(B26*'Life Table - Male'!B71,U26)</f>
         <v>206.76935795828263</v>
       </c>
       <c r="V27" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W27" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X27" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2930481.9313214975</v>
       </c>
       <c r="Y27" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>350.61768923269699</v>
       </c>
     </row>
@@ -40043,8 +40046,8 @@
         <v>25</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" si="15"/>
-        <v>575.2711097969559</v>
+        <f t="shared" si="13"/>
+        <v>555.90231453501747</v>
       </c>
       <c r="C28" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C27*(1-'Life Table - Male'!B72)</f>
@@ -40119,22 +40122,22 @@
         <v>0</v>
       </c>
       <c r="U28" s="181">
-        <f>SUM(B28*'Life Table - Male'!B72,U27)</f>
+        <f>SUM(B27*'Life Table - Male'!B72,U27)</f>
         <v>220.97855437026743</v>
       </c>
       <c r="V28" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W28" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X28" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1398543.1369157615</v>
       </c>
       <c r="Y28" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>164.47873569047647</v>
       </c>
     </row>
@@ -40143,8 +40146,8 @@
         <v>26</v>
       </c>
       <c r="B29" s="15">
-        <f t="shared" si="15"/>
-        <v>555.90231453501747</v>
+        <f t="shared" si="13"/>
+        <v>536.43999820053466</v>
       </c>
       <c r="C29" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C28*(1-'Life Table - Male'!B73)</f>
@@ -40219,22 +40222,22 @@
         <v>0</v>
       </c>
       <c r="U29" s="181">
-        <f>SUM(B29*'Life Table - Male'!B73,U28)</f>
+        <f>SUM(B28*'Life Table - Male'!B73,U28)</f>
         <v>235.61379460503085</v>
       </c>
       <c r="V29" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W29" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X29" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2662232.7599704429</v>
       </c>
       <c r="Y29" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>308.20667010177459</v>
       </c>
     </row>
@@ -40243,8 +40246,8 @@
         <v>27</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" si="15"/>
-        <v>536.43999820053466</v>
+        <f t="shared" si="13"/>
+        <v>516.8280017938464</v>
       </c>
       <c r="C30" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C29*(1-'Life Table - Male'!B74)</f>
@@ -40319,22 +40322,22 @@
         <v>0</v>
       </c>
       <c r="U30" s="181">
-        <f>SUM(B30*'Life Table - Male'!B74,U29)</f>
+        <f>SUM(B29*'Life Table - Male'!B74,U29)</f>
         <v>250.71189835438489</v>
       </c>
       <c r="V30" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W30" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X30" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1263258.6769648604</v>
       </c>
       <c r="Y30" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>144.15041983883768</v>
       </c>
     </row>
@@ -40343,8 +40346,8 @@
         <v>28</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" si="15"/>
-        <v>516.8280017938464</v>
+        <f t="shared" si="13"/>
+        <v>496.94125452308799</v>
       </c>
       <c r="C31" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C30*(1-'Life Table - Male'!B75)</f>
@@ -40419,22 +40422,22 @@
         <v>0</v>
       </c>
       <c r="U31" s="181">
-        <f>SUM(B31*'Life Table - Male'!B75,U30)</f>
+        <f>SUM(B30*'Life Table - Male'!B75,U30)</f>
         <v>266.38108971277074</v>
       </c>
       <c r="V31" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X31" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2390108.7714788695</v>
       </c>
       <c r="Y31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>269.14304937366182</v>
       </c>
     </row>
@@ -40443,8 +40446,8 @@
         <v>29</v>
       </c>
       <c r="B32" s="15">
-        <f t="shared" si="15"/>
-        <v>496.94125452308799</v>
+        <f t="shared" si="13"/>
+        <v>476.85970242012218</v>
       </c>
       <c r="C32" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C31*(1-'Life Table - Male'!B76)</f>
@@ -40519,22 +40522,22 @@
         <v>0</v>
       </c>
       <c r="U32" s="181">
-        <f>SUM(B32*'Life Table - Male'!B76,U31)</f>
+        <f>SUM(B31*'Life Table - Male'!B76,U31)</f>
         <v>282.52522024846229</v>
       </c>
       <c r="V32" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W32" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X32" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1127042.5876718122</v>
       </c>
       <c r="Y32" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>125.37650961610761</v>
       </c>
     </row>
@@ -40542,9 +40545,9 @@
       <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="16">
-        <f t="shared" si="15"/>
-        <v>476.85970242012218</v>
+      <c r="B33" s="166">
+        <f t="shared" si="13"/>
+        <v>455.8098239695463</v>
       </c>
       <c r="C33" s="28">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C32*(1-'Life Table - Male'!B77)</f>
@@ -40619,22 +40622,22 @@
         <v>0</v>
       </c>
       <c r="U33" s="184">
-        <f>SUM(B33*'Life Table - Male'!B77,U32)</f>
+        <f>SUM(B32*'Life Table - Male'!B77,U32)</f>
         <v>299.90914070018783</v>
       </c>
       <c r="V33" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W33" s="54">
         <v>0.33333333333333331</v>
       </c>
       <c r="X33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>528861.88313086634</v>
       </c>
       <c r="Y33" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>58.177603238379263</v>
       </c>
     </row>
@@ -42768,36 +42771,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -47859,7 +47862,7 @@
   <dimension ref="A1:Y113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -47883,36 +47886,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
       <c r="U1" s="165" t="s">
         <v>264</v>
       </c>
@@ -48080,9 +48083,9 @@
       <c r="A4" s="10">
         <v>1</v>
       </c>
-      <c r="B4" s="15">
-        <f>SUM(C3,F3,I3,L3,O3)</f>
-        <v>1000</v>
+      <c r="B4" s="13">
+        <f>SUM(C4,F4,I4,L4,O4)</f>
+        <v>995.76900000000001</v>
       </c>
       <c r="C4" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C3*(1-'Life Table - Male'!B48)</f>
@@ -48156,12 +48159,12 @@
         <f t="shared" ref="T4:T33" si="12">R4*0*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
-      <c r="U4" s="19">
-        <f>SUM(B4*'Life Table - Male'!B48,U3)</f>
+      <c r="U4" s="13">
+        <f>SUM(B3*'Life Table - Male'!B48,U3)</f>
         <v>4.2310000000000008</v>
       </c>
       <c r="V4" s="49">
-        <f>SUM(C4,F4,I4,L4,O4,R4-R3,U4-U3)-B4</f>
+        <f>SUM(C4,F4,I4,L4,O4,R4-R3,U4-U3)-B3</f>
         <v>0</v>
       </c>
       <c r="W4" s="54">
@@ -48180,9 +48183,9 @@
       <c r="A5" s="10">
         <v>2</v>
       </c>
-      <c r="B5" s="15">
-        <f>SUM(C4,F4,I4,L4,O4)</f>
-        <v>995.76900000000001</v>
+      <c r="B5" s="13">
+        <f t="shared" ref="B5:B33" si="13">SUM(C5,F5,I5,L5,O5)</f>
+        <v>986.81237400165742</v>
       </c>
       <c r="C5" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C4*(1-'Life Table - Male'!B49)</f>
@@ -48256,23 +48259,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U5" s="19">
-        <f>SUM(B5*'Life Table - Male'!B49,U4)</f>
+      <c r="U5" s="13">
+        <f>SUM(B4*'Life Table - Male'!B49,U4)</f>
         <v>8.7268970350000004</v>
       </c>
       <c r="V5" s="49">
-        <f t="shared" ref="V5:V33" si="13">SUM(C5,F5,I5,L5,O5,R5-R4,U5-U4)-B5</f>
+        <f t="shared" ref="V5:V33" si="14">SUM(C5,F5,I5,L5,O5,R5-R4,U5-U4)-B4</f>
         <v>0</v>
       </c>
       <c r="W5" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X5" s="13">
-        <f t="shared" ref="X5:Y33" si="14">SUM(D5,G5,J5,M5,P5,S5)</f>
+        <f t="shared" ref="X5:Y33" si="15">SUM(D5,G5,J5,M5,P5,S5)</f>
         <v>1133851.7315116166</v>
       </c>
       <c r="Y5" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1200.623055515151</v>
       </c>
     </row>
@@ -48280,9 +48283,9 @@
       <c r="A6" s="10">
         <v>3</v>
       </c>
-      <c r="B6" s="15">
-        <f t="shared" ref="B6:B33" si="15">SUM(C5,F5,I5,L5,O5)</f>
-        <v>986.81237400165742</v>
+      <c r="B6" s="13">
+        <f t="shared" si="13"/>
+        <v>974.40969523029605</v>
       </c>
       <c r="C6" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C5*(1-'Life Table - Male'!B50)</f>
@@ -48356,23 +48359,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U6" s="19">
-        <f>SUM(B6*'Life Table - Male'!B50,U5)</f>
+      <c r="U6" s="13">
+        <f>SUM(B5*'Life Table - Male'!B50,U5)</f>
         <v>13.494187613802008</v>
       </c>
       <c r="V6" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W6" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>804901.67607239378</v>
       </c>
       <c r="Y6" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>569.22733000626476</v>
       </c>
     </row>
@@ -48380,9 +48383,9 @@
       <c r="A7" s="10">
         <v>4</v>
       </c>
-      <c r="B7" s="15">
-        <f t="shared" si="15"/>
-        <v>974.40969523029605</v>
+      <c r="B7" s="13">
+        <f t="shared" si="13"/>
+        <v>959.44739657890409</v>
       </c>
       <c r="C7" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C6*(1-'Life Table - Male'!B51)</f>
@@ -48456,23 +48459,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U7" s="19">
-        <f>SUM(B7*'Life Table - Male'!B51,U6)</f>
+      <c r="U7" s="13">
+        <f>SUM(B6*'Life Table - Male'!B51,U6)</f>
         <v>18.542604244790173</v>
       </c>
       <c r="V7" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W7" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2005163.7434044506</v>
       </c>
       <c r="Y7" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1078.9791701181518</v>
       </c>
     </row>
@@ -48480,9 +48483,9 @@
       <c r="A8" s="10">
         <v>5</v>
       </c>
-      <c r="B8" s="15">
-        <f t="shared" si="15"/>
-        <v>959.44739657890409</v>
+      <c r="B8" s="13">
+        <f t="shared" si="13"/>
+        <v>942.60728631254733</v>
       </c>
       <c r="C8" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C7*(1-'Life Table - Male'!B52)</f>
@@ -48556,23 +48559,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="19">
-        <f>SUM(B8*'Life Table - Male'!B52,U7)</f>
+      <c r="U8" s="13">
+        <f>SUM(B7*'Life Table - Male'!B52,U7)</f>
         <v>23.886726243734671</v>
       </c>
       <c r="V8" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W8" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1160717.2832336656</v>
       </c>
       <c r="Y8" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>511.06542669434231</v>
       </c>
     </row>
@@ -48580,9 +48583,9 @@
       <c r="A9" s="10">
         <v>6</v>
       </c>
-      <c r="B9" s="15">
-        <f t="shared" si="15"/>
-        <v>942.60728631254733</v>
+      <c r="B9" s="13">
+        <f t="shared" si="13"/>
+        <v>924.43690653176395</v>
       </c>
       <c r="C9" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C8*(1-'Life Table - Male'!B53)</f>
@@ -48656,23 +48659,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U9" s="19">
-        <f>SUM(B9*'Life Table - Male'!B53,U8)</f>
+      <c r="U9" s="13">
+        <f>SUM(B8*'Life Table - Male'!B53,U8)</f>
         <v>29.528230852315268</v>
       </c>
       <c r="V9" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W9" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2566179.6035727505</v>
       </c>
       <c r="Y9" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>967.86114504992861</v>
       </c>
     </row>
@@ -48680,9 +48683,9 @@
       <c r="A10" s="10">
         <v>7</v>
       </c>
-      <c r="B10" s="15">
-        <f t="shared" si="15"/>
-        <v>924.43690653176395</v>
+      <c r="B10" s="13">
+        <f t="shared" si="13"/>
+        <v>905.33616605393797</v>
       </c>
       <c r="C10" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C9*(1-'Life Table - Male'!B54)</f>
@@ -48756,23 +48759,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U10" s="19">
-        <f>SUM(B10*'Life Table - Male'!B54,U9)</f>
+      <c r="U10" s="13">
+        <f>SUM(B9*'Life Table - Male'!B54,U9)</f>
         <v>35.490848899445147</v>
       </c>
       <c r="V10" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W10" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1374498.8847985235</v>
       </c>
       <c r="Y10" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>458.0446542545647</v>
       </c>
     </row>
@@ -48780,9 +48783,9 @@
       <c r="A11" s="10">
         <v>8</v>
       </c>
-      <c r="B11" s="15">
-        <f t="shared" si="15"/>
-        <v>905.33616605393797</v>
+      <c r="B11" s="13">
+        <f t="shared" si="13"/>
+        <v>885.56480300179919</v>
       </c>
       <c r="C11" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C10*(1-'Life Table - Male'!B55)</f>
@@ -48856,23 +48859,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U11" s="19">
-        <f>SUM(B11*'Life Table - Male'!B55,U10)</f>
+      <c r="U11" s="13">
+        <f>SUM(B10*'Life Table - Male'!B55,U10)</f>
         <v>41.831823406486926</v>
       </c>
       <c r="V11" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W11" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2879336.8711296679</v>
       </c>
       <c r="Y11" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>866.69119825041912</v>
       </c>
     </row>
@@ -48880,9 +48883,9 @@
       <c r="A12" s="10">
         <v>9</v>
       </c>
-      <c r="B12" s="15">
-        <f t="shared" si="15"/>
-        <v>885.56480300179919</v>
+      <c r="B12" s="13">
+        <f t="shared" si="13"/>
+        <v>865.29147868870086</v>
       </c>
       <c r="C12" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C11*(1-'Life Table - Male'!B56)</f>
@@ -48956,23 +48959,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U12" s="19">
-        <f>SUM(B12*'Life Table - Male'!B56,U11)</f>
+      <c r="U12" s="13">
+        <f>SUM(B11*'Life Table - Male'!B56,U11)</f>
         <v>48.612593103071703</v>
       </c>
       <c r="V12" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W12" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1482816.2357245921</v>
       </c>
       <c r="Y12" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>409.76655312277614</v>
       </c>
     </row>
@@ -48980,9 +48983,9 @@
       <c r="A13" s="10">
         <v>10</v>
       </c>
-      <c r="B13" s="15">
-        <f t="shared" si="15"/>
-        <v>865.29147868870086</v>
+      <c r="B13" s="13">
+        <f t="shared" si="13"/>
+        <v>844.64682585166668</v>
       </c>
       <c r="C13" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C12*(1-'Life Table - Male'!B57)</f>
@@ -49056,23 +49059,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U13" s="19">
-        <f>SUM(B13*'Life Table - Male'!B57,U12)</f>
+      <c r="U13" s="13">
+        <f>SUM(B12*'Life Table - Male'!B57,U12)</f>
         <v>55.864600985961701</v>
       </c>
       <c r="V13" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W13" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3015158.0594905484</v>
       </c>
       <c r="Y13" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>774.50602247870199</v>
       </c>
     </row>
@@ -49080,9 +49083,9 @@
       <c r="A14" s="10">
         <v>11</v>
       </c>
-      <c r="B14" s="15">
-        <f t="shared" si="15"/>
-        <v>844.64682585166668</v>
+      <c r="B14" s="13">
+        <f t="shared" si="13"/>
+        <v>823.765443540192</v>
       </c>
       <c r="C14" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C13*(1-'Life Table - Male'!B58)</f>
@@ -49156,23 +49159,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U14" s="19">
-        <f>SUM(B14*'Life Table - Male'!B58,U13)</f>
+      <c r="U14" s="13">
+        <f>SUM(B13*'Life Table - Male'!B58,U13)</f>
         <v>63.563556803599646</v>
       </c>
       <c r="V14" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W14" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1517088.9793938221</v>
       </c>
       <c r="Y14" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>365.77335391240661</v>
       </c>
     </row>
@@ -49180,9 +49183,9 @@
       <c r="A15" s="10">
         <v>12</v>
       </c>
-      <c r="B15" s="15">
-        <f t="shared" si="15"/>
-        <v>823.765443540192</v>
+      <c r="B15" s="13">
+        <f t="shared" si="13"/>
+        <v>802.74437692606239</v>
       </c>
       <c r="C15" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C14*(1-'Life Table - Male'!B59)</f>
@@ -49256,23 +49259,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U15" s="19">
-        <f>SUM(B15*'Life Table - Male'!B59,U14)</f>
+      <c r="U15" s="13">
+        <f>SUM(B14*'Life Table - Male'!B59,U14)</f>
         <v>71.685060311462394</v>
       </c>
       <c r="V15" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W15" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3027919.1876511853</v>
       </c>
       <c r="Y15" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>690.58552978504622</v>
       </c>
     </row>
@@ -49280,9 +49283,9 @@
       <c r="A16" s="10">
         <v>13</v>
       </c>
-      <c r="B16" s="15">
-        <f t="shared" si="15"/>
-        <v>802.74437692606239</v>
+      <c r="B16" s="13">
+        <f t="shared" si="13"/>
+        <v>781.61067734241738</v>
       </c>
       <c r="C16" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C15*(1-'Life Table - Male'!B60)</f>
@@ -49356,23 +49359,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U16" s="19">
-        <f>SUM(B16*'Life Table - Male'!B60,U15)</f>
+      <c r="U16" s="13">
+        <f>SUM(B15*'Life Table - Male'!B60,U15)</f>
         <v>80.248737324509634</v>
       </c>
       <c r="V16" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W16" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1500288.7191915014</v>
       </c>
       <c r="Y16" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>325.75672884019832</v>
       </c>
     </row>
@@ -49380,9 +49383,9 @@
       <c r="A17" s="10">
         <v>14</v>
       </c>
-      <c r="B17" s="15">
-        <f t="shared" si="15"/>
-        <v>781.61067734241738</v>
+      <c r="B17" s="13">
+        <f t="shared" si="13"/>
+        <v>760.35768963420105</v>
       </c>
       <c r="C17" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C16*(1-'Life Table - Male'!B61)</f>
@@ -49456,23 +49459,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="19">
-        <f>SUM(B17*'Life Table - Male'!B61,U16)</f>
+      <c r="U17" s="13">
+        <f>SUM(B16*'Life Table - Male'!B61,U16)</f>
         <v>89.290409640006715</v>
       </c>
       <c r="V17" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W17" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2955577.3029708969</v>
       </c>
       <c r="Y17" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>614.21263803580223</v>
       </c>
     </row>
@@ -49480,9 +49483,9 @@
       <c r="A18" s="10">
         <v>15</v>
       </c>
-      <c r="B18" s="15">
-        <f t="shared" si="15"/>
-        <v>760.35768963420105</v>
+      <c r="B18" s="13">
+        <f t="shared" si="13"/>
+        <v>738.98144821742051</v>
       </c>
       <c r="C18" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C17*(1-'Life Table - Male'!B62)</f>
@@ -49556,23 +49559,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U18" s="19">
-        <f>SUM(B18*'Life Table - Male'!B62,U17)</f>
+      <c r="U18" s="13">
+        <f>SUM(B17*'Life Table - Male'!B62,U17)</f>
         <v>98.831377929536671</v>
       </c>
       <c r="V18" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1447915.9234042317</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>289.29165532848663</v>
       </c>
     </row>
@@ -49580,9 +49583,9 @@
       <c r="A19" s="10">
         <v>16</v>
       </c>
-      <c r="B19" s="15">
-        <f t="shared" si="15"/>
-        <v>738.98144821742051</v>
+      <c r="B19" s="13">
+        <f t="shared" si="13"/>
+        <v>717.48227649417163</v>
       </c>
       <c r="C19" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C18*(1-'Life Table - Male'!B63)</f>
@@ -49656,23 +49659,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U19" s="19">
-        <f>SUM(B19*'Life Table - Male'!B63,U18)</f>
+      <c r="U19" s="13">
+        <f>SUM(B18*'Life Table - Male'!B63,U18)</f>
         <v>108.88078664384537</v>
       </c>
       <c r="V19" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W19" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2823849.0431506373</v>
       </c>
       <c r="Y19" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>544.54053979775347</v>
       </c>
     </row>
@@ -49680,9 +49683,9 @@
       <c r="A20" s="10">
         <v>17</v>
       </c>
-      <c r="B20" s="15">
-        <f t="shared" si="15"/>
-        <v>717.48227649417163</v>
+      <c r="B20" s="13">
+        <f t="shared" si="13"/>
+        <v>695.89778727933503</v>
       </c>
       <c r="C20" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C19*(1-'Life Table - Male'!B64)</f>
@@ -49756,23 +49759,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U20" s="19">
-        <f>SUM(B20*'Life Table - Male'!B64,U19)</f>
+      <c r="U20" s="13">
+        <f>SUM(B19*'Life Table - Male'!B64,U19)</f>
         <v>119.40481667546187</v>
       </c>
       <c r="V20" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W20" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1370968.9690747526</v>
       </c>
       <c r="Y20" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>256.01759386227684</v>
       </c>
     </row>
@@ -49780,9 +49783,9 @@
       <c r="A21" s="10">
         <v>18</v>
       </c>
-      <c r="B21" s="15">
-        <f t="shared" si="15"/>
-        <v>695.89778727933503</v>
+      <c r="B21" s="13">
+        <f t="shared" si="13"/>
+        <v>674.28474789615939</v>
       </c>
       <c r="C21" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C20*(1-'Life Table - Male'!B65)</f>
@@ -49856,23 +49859,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U21" s="19">
-        <f>SUM(B21*'Life Table - Male'!B65,U20)</f>
+      <c r="U21" s="13">
+        <f>SUM(B20*'Life Table - Male'!B65,U20)</f>
         <v>130.34641758485486</v>
       </c>
       <c r="V21" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W21" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X21" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2652193.6668522595</v>
       </c>
       <c r="Y21" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>481.03491999812132</v>
       </c>
     </row>
@@ -49880,9 +49883,9 @@
       <c r="A22" s="10">
         <v>19</v>
       </c>
-      <c r="B22" s="15">
-        <f t="shared" si="15"/>
-        <v>674.28474789615939</v>
+      <c r="B22" s="13">
+        <f t="shared" si="13"/>
+        <v>652.70423632811298</v>
       </c>
       <c r="C22" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C21*(1-'Life Table - Male'!B66)</f>
@@ -49956,23 +49959,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U22" s="19">
-        <f>SUM(B22*'Life Table - Male'!B66,U21)</f>
+      <c r="U22" s="13">
+        <f>SUM(B21*'Life Table - Male'!B66,U21)</f>
         <v>141.64136139686343</v>
       </c>
       <c r="V22" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W22" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1278239.2547843396</v>
       </c>
       <c r="Y22" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>225.75542722919266</v>
       </c>
     </row>
@@ -49980,9 +49983,9 @@
       <c r="A23" s="10">
         <v>20</v>
       </c>
-      <c r="B23" s="15">
-        <f t="shared" si="15"/>
-        <v>652.70423632811298</v>
+      <c r="B23" s="13">
+        <f t="shared" si="13"/>
+        <v>631.18628851039784</v>
       </c>
       <c r="C23" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C22*(1-'Life Table - Male'!B67)</f>
@@ -50056,23 +50059,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U23" s="19">
-        <f>SUM(B23*'Life Table - Male'!B67,U22)</f>
+      <c r="U23" s="13">
+        <f>SUM(B22*'Life Table - Male'!B67,U22)</f>
         <v>153.25492787384954</v>
       </c>
       <c r="V23" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W23" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2456314.2391912267</v>
       </c>
       <c r="Y23" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>423.41289285580069</v>
       </c>
     </row>
@@ -50080,9 +50083,9 @@
       <c r="A24" s="10">
         <v>21</v>
       </c>
-      <c r="B24" s="15">
-        <f t="shared" si="15"/>
-        <v>631.18628851039784</v>
+      <c r="B24" s="13">
+        <f t="shared" si="13"/>
+        <v>609.7222886002495</v>
       </c>
       <c r="C24" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C23*(1-'Life Table - Male'!B68)</f>
@@ -50156,23 +50159,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U24" s="19">
-        <f>SUM(B24*'Life Table - Male'!B68,U23)</f>
+      <c r="U24" s="13">
+        <f>SUM(B23*'Life Table - Male'!B68,U23)</f>
         <v>165.19066058958117</v>
       </c>
       <c r="V24" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W24" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X24" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1176441.0891271725</v>
       </c>
       <c r="Y24" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>198.33383491255381</v>
       </c>
     </row>
@@ -50180,9 +50183,9 @@
       <c r="A25" s="10">
         <v>22</v>
       </c>
-      <c r="B25" s="15">
-        <f t="shared" si="15"/>
-        <v>609.7222886002495</v>
+      <c r="B25" s="13">
+        <f t="shared" si="13"/>
+        <v>588.2248480501562</v>
       </c>
       <c r="C25" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C24*(1-'Life Table - Male'!B69)</f>
@@ -50256,23 +50259,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U25" s="19">
-        <f>SUM(B25*'Life Table - Male'!B69,U24)</f>
+      <c r="U25" s="13">
+        <f>SUM(B24*'Life Table - Male'!B69,U24)</f>
         <v>177.53204943313881</v>
       </c>
       <c r="V25" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W25" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X25" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2246899.8452301966</v>
       </c>
       <c r="Y25" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>371.1567187647745</v>
       </c>
     </row>
@@ -50280,9 +50283,9 @@
       <c r="A26" s="10">
         <v>23</v>
       </c>
-      <c r="B26" s="15">
-        <f t="shared" si="15"/>
-        <v>588.2248480501562</v>
+      <c r="B26" s="13">
+        <f t="shared" si="13"/>
+        <v>566.72104289956837</v>
       </c>
       <c r="C26" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C25*(1-'Life Table - Male'!B70)</f>
@@ -50356,23 +50359,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U26" s="19">
-        <f>SUM(B26*'Life Table - Male'!B70,U25)</f>
+      <c r="U26" s="13">
+        <f>SUM(B25*'Life Table - Male'!B70,U25)</f>
         <v>190.24770597343903</v>
       </c>
       <c r="V26" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W26" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X26" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1069694.5575318541</v>
       </c>
       <c r="Y26" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>173.42087912484283</v>
       </c>
     </row>
@@ -50380,9 +50383,9 @@
       <c r="A27" s="10">
         <v>24</v>
       </c>
-      <c r="B27" s="15">
-        <f t="shared" si="15"/>
-        <v>566.72104289956837</v>
+      <c r="B27" s="13">
+        <f t="shared" si="13"/>
+        <v>545.19317065901078</v>
       </c>
       <c r="C27" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C26*(1-'Life Table - Male'!B71)</f>
@@ -50456,23 +50459,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U27" s="19">
-        <f>SUM(B27*'Life Table - Male'!B71,U26)</f>
+      <c r="U27" s="13">
+        <f>SUM(B26*'Life Table - Male'!B71,U26)</f>
         <v>203.35142992736286</v>
       </c>
       <c r="V27" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W27" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X27" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2031076.2306218396</v>
       </c>
       <c r="Y27" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>323.65881065777199</v>
       </c>
     </row>
@@ -50480,9 +50483,9 @@
       <c r="A28" s="10">
         <v>25</v>
       </c>
-      <c r="B28" s="15">
-        <f t="shared" si="15"/>
-        <v>545.19317065901078</v>
+      <c r="B28" s="13">
+        <f t="shared" si="13"/>
+        <v>523.66272163513872</v>
       </c>
       <c r="C28" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C27*(1-'Life Table - Male'!B72)</f>
@@ -50556,23 +50559,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U28" s="19">
-        <f>SUM(B28*'Life Table - Male'!B72,U27)</f>
+      <c r="U28" s="13">
+        <f>SUM(B27*'Life Table - Male'!B72,U27)</f>
         <v>216.81770124264042</v>
       </c>
       <c r="V28" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W28" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X28" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>961362.71874189354</v>
       </c>
       <c r="Y28" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>150.78523147953035</v>
       </c>
     </row>
@@ -50580,9 +50583,9 @@
       <c r="A29" s="10">
         <v>26</v>
       </c>
-      <c r="B29" s="15">
-        <f t="shared" si="15"/>
-        <v>523.66272163513872</v>
+      <c r="B29" s="13">
+        <f t="shared" si="13"/>
+        <v>502.16767682103148</v>
       </c>
       <c r="C29" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C28*(1-'Life Table - Male'!B73)</f>
@@ -50656,23 +50659,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U29" s="19">
-        <f>SUM(B29*'Life Table - Male'!B73,U28)</f>
+      <c r="U29" s="13">
+        <f>SUM(B28*'Life Table - Male'!B73,U28)</f>
         <v>230.60416971512873</v>
       </c>
       <c r="V29" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W29" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X29" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1815059.0735270386</v>
       </c>
       <c r="Y29" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>280.54950893353839</v>
       </c>
     </row>
@@ -50680,9 +50683,9 @@
       <c r="A30" s="10">
         <v>27</v>
       </c>
-      <c r="B30" s="15">
-        <f t="shared" si="15"/>
-        <v>502.16767682103148</v>
+      <c r="B30" s="13">
+        <f t="shared" si="13"/>
+        <v>480.67755309763254</v>
       </c>
       <c r="C30" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C29*(1-'Life Table - Male'!B74)</f>
@@ -50756,23 +50759,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U30" s="19">
-        <f>SUM(B30*'Life Table - Male'!B74,U29)</f>
+      <c r="U30" s="13">
+        <f>SUM(B29*'Life Table - Male'!B74,U29)</f>
         <v>244.73767897925666</v>
       </c>
       <c r="V30" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W30" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X30" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>854230.5650567906</v>
       </c>
       <c r="Y30" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>130.26573685784675</v>
       </c>
     </row>
@@ -50780,9 +50783,9 @@
       <c r="A31" s="10">
         <v>28</v>
       </c>
-      <c r="B31" s="15">
-        <f t="shared" si="15"/>
-        <v>480.67755309763254</v>
+      <c r="B31" s="13">
+        <f t="shared" si="13"/>
+        <v>459.0977819716818</v>
       </c>
       <c r="C31" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C30*(1-'Life Table - Male'!B75)</f>
@@ -50856,23 +50859,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U31" s="19">
-        <f>SUM(B31*'Life Table - Male'!B75,U30)</f>
+      <c r="U31" s="13">
+        <f>SUM(B30*'Life Table - Male'!B75,U30)</f>
         <v>259.31086103407068</v>
       </c>
       <c r="V31" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X31" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1603022.9852383127</v>
       </c>
       <c r="Y31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>241.42248691134148</v>
       </c>
     </row>
@@ -50880,9 +50883,9 @@
       <c r="A32" s="10">
         <v>29</v>
       </c>
-      <c r="B32" s="15">
-        <f t="shared" si="15"/>
-        <v>459.0977819716818</v>
+      <c r="B32" s="13">
+        <f t="shared" si="13"/>
+        <v>437.52336747391757</v>
       </c>
       <c r="C32" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C31*(1-'Life Table - Male'!B76)</f>
@@ -50956,23 +50959,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U32" s="19">
-        <f>SUM(B32*'Life Table - Male'!B76,U31)</f>
+      <c r="U32" s="13">
+        <f>SUM(B31*'Life Table - Male'!B76,U31)</f>
         <v>274.22557067698472</v>
       </c>
       <c r="V32" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W32" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X32" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>749721.5019626522</v>
       </c>
       <c r="Y32" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>111.61670855211939</v>
       </c>
     </row>
@@ -50980,9 +50983,9 @@
       <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="16">
-        <f t="shared" si="15"/>
-        <v>437.52336747391757</v>
+      <c r="B33" s="166">
+        <f t="shared" si="13"/>
+        <v>415.26815198338943</v>
       </c>
       <c r="C33" s="28">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C32*(1-'Life Table - Male'!B77)</f>
@@ -51057,22 +51060,22 @@
         <v>0</v>
       </c>
       <c r="U33" s="166">
-        <f>SUM(B33*'Life Table - Male'!B77,U32)</f>
+        <f>SUM(B32*'Life Table - Male'!B77,U32)</f>
         <v>290.17548503824639</v>
       </c>
       <c r="V33" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W33" s="54">
         <v>0.33333333333333331</v>
       </c>
       <c r="X33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>348927.64685559546</v>
       </c>
       <c r="Y33" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>51.396085980276382</v>
       </c>
     </row>
@@ -53206,36 +53209,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -58296,8 +58299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F361DDA-642D-2A4B-A6A0-6342222DEDFC}">
   <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V39" sqref="V39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -58321,36 +58324,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="215" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="197" t="s">
+      <c r="D1" s="216"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="218" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="198"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="200" t="s">
+      <c r="G1" s="219"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="221" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="201"/>
-      <c r="K1" s="202"/>
-      <c r="L1" s="203" t="s">
+      <c r="J1" s="222"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="224" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="204"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="206" t="s">
+      <c r="M1" s="225"/>
+      <c r="N1" s="226"/>
+      <c r="O1" s="227" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="207"/>
-      <c r="Q1" s="208"/>
-      <c r="R1" s="209" t="s">
+      <c r="P1" s="228"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="212" t="s">
         <v>263</v>
       </c>
-      <c r="S1" s="210"/>
-      <c r="T1" s="211"/>
+      <c r="S1" s="213"/>
+      <c r="T1" s="214"/>
       <c r="U1" s="165" t="s">
         <v>264</v>
       </c>
@@ -58518,8 +58521,8 @@
         <v>1</v>
       </c>
       <c r="B4" s="15">
-        <f>SUM(C3,F3,I3,L3,O3)</f>
-        <v>1000</v>
+        <f>SUM(C4,F4,I4,L4,O4)</f>
+        <v>995.76900000000001</v>
       </c>
       <c r="C4" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C3*(1-'Life Table - Male'!B48)</f>
@@ -58593,12 +58596,12 @@
         <f t="shared" ref="T4:T33" si="12">R4*0*W4/(1+discount_rate)^A4</f>
         <v>0</v>
       </c>
-      <c r="U4" s="19">
-        <f>SUM(B4*'Life Table - Male'!B48,U3)</f>
+      <c r="U4" s="13">
+        <f>SUM(B3*'Life Table - Male'!B48,U3)</f>
         <v>4.2310000000000008</v>
       </c>
       <c r="V4" s="49">
-        <f>SUM(C4,F4,I4,L4,O4,R4-R3, U4-U3)-B4</f>
+        <f>SUM(C4,F4,I4,L4,O4,R4-R3, U4-U3)-B3</f>
         <v>0</v>
       </c>
       <c r="W4" s="54">
@@ -58618,8 +58621,8 @@
         <v>2</v>
       </c>
       <c r="B5" s="15">
-        <f>SUM(C4,F4,I4,L4,O4)</f>
-        <v>995.76900000000001</v>
+        <f t="shared" ref="B5:B33" si="13">SUM(C5,F5,I5,L5,O5)</f>
+        <v>986.81237400165742</v>
       </c>
       <c r="C5" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C4*(1-'Life Table - Male'!B49)</f>
@@ -58693,23 +58696,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U5" s="19">
-        <f>SUM(B5*'Life Table - Male'!B49,U4)</f>
+      <c r="U5" s="13">
+        <f>SUM(B4*'Life Table - Male'!B49,U4)</f>
         <v>8.7268970350000004</v>
       </c>
       <c r="V5" s="49">
-        <f t="shared" ref="V5:V33" si="13">SUM(C5,F5,I5,L5,O5,R5-R4, U5-U4)-B5</f>
+        <f t="shared" ref="V5:V33" si="14">SUM(C5,F5,I5,L5,O5,R5-R4, U5-U4)-B4</f>
         <v>0</v>
       </c>
       <c r="W5" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X5" s="13">
-        <f t="shared" ref="X5:Y33" si="14">SUM(D5,G5,J5,M5,P5,S5)</f>
+        <f t="shared" ref="X5:Y33" si="15">SUM(D5,G5,J5,M5,P5,S5)</f>
         <v>1236632.4283974213</v>
       </c>
       <c r="Y5" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1200.623055515151</v>
       </c>
     </row>
@@ -58718,8 +58721,8 @@
         <v>3</v>
       </c>
       <c r="B6" s="15">
-        <f t="shared" ref="B6:B33" si="15">SUM(C5,F5,I5,L5,O5)</f>
-        <v>986.81237400165742</v>
+        <f t="shared" si="13"/>
+        <v>974.40969523029594</v>
       </c>
       <c r="C6" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C5*(1-'Life Table - Male'!B50)</f>
@@ -58793,23 +58796,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U6" s="19">
-        <f>SUM(B6*'Life Table - Male'!B50,U5)</f>
+      <c r="U6" s="13">
+        <f>SUM(B5*'Life Table - Male'!B50,U5)</f>
         <v>13.494187613802008</v>
       </c>
       <c r="V6" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W6" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X6" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>934320.7837381619</v>
       </c>
       <c r="Y6" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>569.27201726209273</v>
       </c>
     </row>
@@ -58818,8 +58821,8 @@
         <v>4</v>
       </c>
       <c r="B7" s="15">
-        <f t="shared" si="15"/>
-        <v>974.40969523029594</v>
+        <f t="shared" si="13"/>
+        <v>959.44739657890409</v>
       </c>
       <c r="C7" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C6*(1-'Life Table - Male'!B51)</f>
@@ -58893,23 +58896,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U7" s="19">
-        <f>SUM(B7*'Life Table - Male'!B51,U6)</f>
+      <c r="U7" s="13">
+        <f>SUM(B6*'Life Table - Male'!B51,U6)</f>
         <v>18.542604244790173</v>
       </c>
       <c r="V7" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W7" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X7" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2440745.2494127946</v>
       </c>
       <c r="Y7" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1079.2764362670166</v>
       </c>
     </row>
@@ -58918,8 +58921,8 @@
         <v>5</v>
       </c>
       <c r="B8" s="15">
-        <f t="shared" si="15"/>
-        <v>959.44739657890409</v>
+        <f t="shared" si="13"/>
+        <v>942.61815547718788</v>
       </c>
       <c r="C8" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C7*(1-'Life Table - Male'!B52)</f>
@@ -58993,23 +58996,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U8" s="19">
-        <f>SUM(B8*'Life Table - Male'!B52,U7)</f>
+      <c r="U8" s="13">
+        <f>SUM(B7*'Life Table - Male'!B52,U7)</f>
         <v>23.886726243734671</v>
       </c>
       <c r="V8" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W8" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X8" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1467096.7037344999</v>
       </c>
       <c r="Y8" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>511.37861257896151</v>
       </c>
     </row>
@@ -59018,8 +59021,8 @@
         <v>6</v>
       </c>
       <c r="B9" s="15">
-        <f t="shared" si="15"/>
-        <v>942.61815547718788</v>
+        <f t="shared" si="13"/>
+        <v>924.48930320433738</v>
       </c>
       <c r="C9" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C8*(1-'Life Table - Male'!B53)</f>
@@ -59093,23 +59096,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U9" s="19">
-        <f>SUM(B9*'Life Table - Male'!B53,U8)</f>
+      <c r="U9" s="13">
+        <f>SUM(B8*'Life Table - Male'!B53,U8)</f>
         <v>29.52829590426564</v>
       </c>
       <c r="V9" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W9" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X9" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3344806.0133753726</v>
       </c>
       <c r="Y9" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>968.92924628190906</v>
       </c>
     </row>
@@ -59118,8 +59121,8 @@
         <v>7</v>
       </c>
       <c r="B10" s="15">
-        <f t="shared" si="15"/>
-        <v>924.48930320433738</v>
+        <f t="shared" si="13"/>
+        <v>905.48403124549441</v>
       </c>
       <c r="C10" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C9*(1-'Life Table - Male'!B54)</f>
@@ -59193,23 +59196,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U10" s="19">
-        <f>SUM(B10*'Life Table - Male'!B54,U9)</f>
+      <c r="U10" s="13">
+        <f>SUM(B9*'Life Table - Male'!B54,U9)</f>
         <v>35.491251909933617</v>
       </c>
       <c r="V10" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W10" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X10" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1838006.3734484529</v>
       </c>
       <c r="Y10" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>458.84915522366703</v>
       </c>
     </row>
@@ -59218,8 +59221,8 @@
         <v>8</v>
       </c>
       <c r="B11" s="15">
-        <f t="shared" si="15"/>
-        <v>905.48403124549441</v>
+        <f t="shared" si="13"/>
+        <v>885.88394672731886</v>
       </c>
       <c r="C11" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C10*(1-'Life Table - Male'!B55)</f>
@@ -59293,23 +59296,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U11" s="19">
-        <f>SUM(B11*'Life Table - Male'!B55,U10)</f>
+      <c r="U11" s="13">
+        <f>SUM(B10*'Life Table - Male'!B55,U10)</f>
         <v>41.83326206477706</v>
       </c>
       <c r="V11" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W11" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X11" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3934569.297167412</v>
       </c>
       <c r="Y11" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>868.92456207359396</v>
       </c>
     </row>
@@ -59318,8 +59321,8 @@
         <v>9</v>
       </c>
       <c r="B12" s="15">
-        <f t="shared" si="15"/>
-        <v>885.88394672731886</v>
+        <f t="shared" si="13"/>
+        <v>865.87497810826437</v>
       </c>
       <c r="C12" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C11*(1-'Life Table - Male'!B56)</f>
@@ -59393,23 +59396,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U12" s="19">
-        <f>SUM(B12*'Life Table - Male'!B56,U11)</f>
+      <c r="U12" s="13">
+        <f>SUM(B11*'Life Table - Male'!B56,U11)</f>
         <v>48.616475444868144</v>
       </c>
       <c r="V12" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W12" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X12" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2064157.1076596321</v>
       </c>
       <c r="Y12" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>411.22874590446202</v>
       </c>
     </row>
@@ -59418,8 +59421,8 @@
         <v>10</v>
       </c>
       <c r="B13" s="15">
-        <f t="shared" si="15"/>
-        <v>865.87497810826437</v>
+        <f t="shared" si="13"/>
+        <v>845.59895395225533</v>
       </c>
       <c r="C13" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C12*(1-'Life Table - Male'!B57)</f>
@@ -59493,23 +59496,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U13" s="19">
-        <f>SUM(B13*'Life Table - Male'!B57,U12)</f>
+      <c r="U13" s="13">
+        <f>SUM(B12*'Life Table - Male'!B57,U12)</f>
         <v>55.873373636393509</v>
       </c>
       <c r="V13" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W13" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X13" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4265161.5113416295</v>
       </c>
       <c r="Y13" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>778.17096747926905</v>
       </c>
     </row>
@@ -59518,8 +59521,8 @@
         <v>11</v>
       </c>
       <c r="B14" s="15">
-        <f t="shared" si="15"/>
-        <v>845.59895395225533</v>
+        <f t="shared" si="13"/>
+        <v>825.19546489007189</v>
       </c>
       <c r="C14" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C13*(1-'Life Table - Male'!B58)</f>
@@ -59593,23 +59596,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U14" s="19">
-        <f>SUM(B14*'Life Table - Male'!B58,U13)</f>
+      <c r="U14" s="13">
+        <f>SUM(B13*'Life Table - Male'!B58,U13)</f>
         <v>63.581008101668317</v>
       </c>
       <c r="V14" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W14" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X14" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2176371.4908627081</v>
       </c>
       <c r="Y14" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>367.99252719148149</v>
       </c>
     </row>
@@ -59618,8 +59621,8 @@
         <v>12</v>
       </c>
       <c r="B15" s="15">
-        <f t="shared" si="15"/>
-        <v>825.19546489007189</v>
+        <f t="shared" si="13"/>
+        <v>804.76094893267964</v>
       </c>
       <c r="C15" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C14*(1-'Life Table - Male'!B59)</f>
@@ -59693,23 +59696,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U15" s="19">
-        <f>SUM(B15*'Life Table - Male'!B59,U14)</f>
+      <c r="U15" s="13">
+        <f>SUM(B14*'Life Table - Male'!B59,U14)</f>
         <v>71.716610190019537</v>
       </c>
       <c r="V15" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W15" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X15" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4397964.3101898553</v>
       </c>
       <c r="Y15" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>695.81419401795756</v>
       </c>
     </row>
@@ -59718,8 +59721,8 @@
         <v>13</v>
       </c>
       <c r="B16" s="15">
-        <f t="shared" si="15"/>
-        <v>804.76094893267964</v>
+        <f t="shared" si="13"/>
+        <v>784.31709309824623</v>
       </c>
       <c r="C16" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C15*(1-'Life Table - Male'!B60)</f>
@@ -59793,23 +59796,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U16" s="19">
-        <f>SUM(B16*'Life Table - Male'!B60,U15)</f>
+      <c r="U16" s="13">
+        <f>SUM(B15*'Life Table - Male'!B60,U15)</f>
         <v>80.301799993233359</v>
       </c>
       <c r="V16" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W16" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X16" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2203359.6108529428</v>
       </c>
       <c r="Y16" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>328.7671083038224</v>
       </c>
     </row>
@@ -59818,8 +59821,8 @@
         <v>14</v>
       </c>
       <c r="B17" s="15">
-        <f t="shared" si="15"/>
-        <v>784.31709309824623</v>
+        <f t="shared" si="13"/>
+        <v>763.84810143147752</v>
       </c>
       <c r="C17" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C16*(1-'Life Table - Male'!B61)</f>
@@ -59893,23 +59896,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U17" s="19">
-        <f>SUM(B17*'Life Table - Male'!B61,U16)</f>
+      <c r="U17" s="13">
+        <f>SUM(B16*'Life Table - Male'!B61,U16)</f>
         <v>89.374780126193869</v>
       </c>
       <c r="V17" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W17" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X17" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4384063.2529851003</v>
       </c>
       <c r="Y17" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>621.01315690781405</v>
       </c>
     </row>
@@ -59918,8 +59921,8 @@
         <v>15</v>
       </c>
       <c r="B18" s="15">
-        <f t="shared" si="15"/>
-        <v>763.84810143147752</v>
+        <f t="shared" si="13"/>
+        <v>743.33813362047817</v>
       </c>
       <c r="C18" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C17*(1-'Life Table - Male'!B62)</f>
@@ -59993,23 +59996,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U18" s="19">
-        <f>SUM(B18*'Life Table - Male'!B62,U17)</f>
+      <c r="U18" s="13">
+        <f>SUM(B17*'Life Table - Male'!B62,U17)</f>
         <v>98.959546102956054</v>
       </c>
       <c r="V18" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W18" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X18" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2167233.5662881527</v>
       </c>
       <c r="Y18" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>293.06926649358081</v>
       </c>
     </row>
@@ -60018,8 +60021,8 @@
         <v>16</v>
       </c>
       <c r="B19" s="15">
-        <f t="shared" si="15"/>
-        <v>743.33813362047817</v>
+        <f t="shared" si="13"/>
+        <v>722.77379895929539</v>
       </c>
       <c r="C19" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C18*(1-'Life Table - Male'!B63)</f>
@@ -60093,23 +60096,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U19" s="19">
-        <f>SUM(B19*'Life Table - Male'!B63,U18)</f>
+      <c r="U19" s="13">
+        <f>SUM(B18*'Life Table - Male'!B63,U18)</f>
         <v>109.06820138206093</v>
       </c>
       <c r="V19" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W19" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X19" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4261896.8474833677</v>
       </c>
       <c r="Y19" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>552.81421786416274</v>
       </c>
     </row>
@@ -60118,8 +60121,8 @@
         <v>17</v>
       </c>
       <c r="B20" s="15">
-        <f t="shared" si="15"/>
-        <v>722.77379895929539</v>
+        <f t="shared" si="13"/>
+        <v>702.17820128845642</v>
       </c>
       <c r="C20" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C19*(1-'Life Table - Male'!B64)</f>
@@ -60193,23 +60196,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U20" s="19">
-        <f>SUM(B20*'Life Table - Male'!B64,U19)</f>
+      <c r="U20" s="13">
+        <f>SUM(B19*'Life Table - Male'!B64,U19)</f>
         <v>119.66984746519589</v>
       </c>
       <c r="V20" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W20" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X20" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2085038.1752057704</v>
       </c>
       <c r="Y20" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>260.49094954371276</v>
       </c>
     </row>
@@ -60218,8 +60221,8 @@
         <v>18</v>
       </c>
       <c r="B21" s="15">
-        <f t="shared" si="15"/>
-        <v>702.17820128845642</v>
+        <f t="shared" si="13"/>
+        <v>681.59350823973</v>
       </c>
       <c r="C21" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C20*(1-'Life Table - Male'!B65)</f>
@@ -60293,23 +60296,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U21" s="19">
-        <f>SUM(B21*'Life Table - Male'!B65,U20)</f>
+      <c r="U21" s="13">
+        <f>SUM(B20*'Life Table - Male'!B65,U20)</f>
         <v>130.7101953240543</v>
       </c>
       <c r="V21" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W21" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X21" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>4062440.0186380101</v>
       </c>
       <c r="Y21" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>490.60205235771667</v>
       </c>
     </row>
@@ -60318,8 +60321,8 @@
         <v>19</v>
       </c>
       <c r="B22" s="15">
-        <f t="shared" si="15"/>
-        <v>681.59350823973</v>
+        <f t="shared" si="13"/>
+        <v>661.06658740134594</v>
       </c>
       <c r="C22" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C21*(1-'Life Table - Male'!B66)</f>
@@ -60393,23 +60396,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U22" s="19">
-        <f>SUM(B22*'Life Table - Male'!B66,U21)</f>
+      <c r="U22" s="13">
+        <f>SUM(B21*'Life Table - Male'!B66,U21)</f>
         <v>142.12756818057801</v>
       </c>
       <c r="V22" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W22" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X22" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1971043.1303079133</v>
       </c>
       <c r="Y22" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>230.82021136561366</v>
       </c>
     </row>
@@ -60418,8 +60421,8 @@
         <v>20</v>
       </c>
       <c r="B23" s="15">
-        <f t="shared" si="15"/>
-        <v>661.06658740134594</v>
+        <f t="shared" si="13"/>
+        <v>640.61355904326376</v>
       </c>
       <c r="C23" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C22*(1-'Life Table - Male'!B67)</f>
@@ -60493,23 +60496,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U23" s="19">
-        <f>SUM(B23*'Life Table - Male'!B67,U22)</f>
+      <c r="U23" s="13">
+        <f>SUM(B22*'Life Table - Male'!B67,U22)</f>
         <v>153.88992597021016</v>
       </c>
       <c r="V23" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W23" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X23" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3811597.7887727735</v>
       </c>
       <c r="Y23" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>434.04268903302659</v>
       </c>
     </row>
@@ -60518,8 +60521,8 @@
         <v>21</v>
       </c>
       <c r="B24" s="15">
-        <f t="shared" si="15"/>
-        <v>640.61355904326376</v>
+        <f t="shared" si="13"/>
+        <v>620.21199529147293</v>
       </c>
       <c r="C24" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C23*(1-'Life Table - Male'!B68)</f>
@@ -60593,23 +60596,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U24" s="19">
-        <f>SUM(B24*'Life Table - Male'!B68,U23)</f>
+      <c r="U24" s="13">
+        <f>SUM(B23*'Life Table - Male'!B68,U23)</f>
         <v>166.00392837171827</v>
       </c>
       <c r="V24" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W24" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X24" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1836513.7707385779</v>
       </c>
       <c r="Y24" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>203.86597357251298</v>
       </c>
     </row>
@@ -60618,8 +60621,8 @@
         <v>22</v>
       </c>
       <c r="B25" s="15">
-        <f t="shared" si="15"/>
-        <v>620.21199529147293</v>
+        <f t="shared" si="13"/>
+        <v>599.7597157796049</v>
       </c>
       <c r="C25" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C24*(1-'Life Table - Male'!B69)</f>
@@ -60693,23 +60696,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U25" s="19">
-        <f>SUM(B25*'Life Table - Male'!B69,U24)</f>
+      <c r="U25" s="13">
+        <f>SUM(B24*'Life Table - Male'!B69,U24)</f>
         <v>178.55763936841296</v>
       </c>
       <c r="V25" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W25" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X25" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3527693.5673217988</v>
       </c>
       <c r="Y25" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>382.58571606819442</v>
       </c>
     </row>
@@ -60718,8 +60721,8 @@
         <v>23</v>
       </c>
       <c r="B26" s="15">
-        <f t="shared" si="15"/>
-        <v>599.7597157796049</v>
+        <f t="shared" si="13"/>
+        <v>579.27136529377776</v>
       </c>
       <c r="C26" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C25*(1-'Life Table - Male'!B70)</f>
@@ -60793,23 +60796,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U26" s="19">
-        <f>SUM(B26*'Life Table - Male'!B70,U25)</f>
+      <c r="U26" s="13">
+        <f>SUM(B25*'Life Table - Male'!B70,U25)</f>
         <v>191.52264514442069</v>
       </c>
       <c r="V26" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W26" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X26" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1688688.2530398073</v>
       </c>
       <c r="Y26" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>179.28230109655743</v>
       </c>
     </row>
@@ -60818,8 +60821,8 @@
         <v>24</v>
       </c>
       <c r="B27" s="15">
-        <f t="shared" si="15"/>
-        <v>579.27136529377776</v>
+        <f t="shared" si="13"/>
+        <v>558.71666747986433</v>
       </c>
       <c r="C27" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C26*(1-'Life Table - Male'!B71)</f>
@@ -60893,23 +60896,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U27" s="19">
-        <f>SUM(B27*'Life Table - Male'!B71,U26)</f>
+      <c r="U27" s="13">
+        <f>SUM(B26*'Life Table - Male'!B71,U26)</f>
         <v>204.91655765274342</v>
       </c>
       <c r="V27" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W27" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X27" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3223385.6953164237</v>
       </c>
       <c r="Y27" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>335.60353521656253</v>
       </c>
     </row>
@@ -60918,8 +60921,8 @@
         <v>25</v>
       </c>
       <c r="B28" s="15">
-        <f t="shared" si="15"/>
-        <v>558.71666747986433</v>
+        <f t="shared" si="13"/>
+        <v>538.10613343729005</v>
       </c>
       <c r="C28" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C27*(1-'Life Table - Male'!B72)</f>
@@ -60993,23 +60996,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U28" s="19">
-        <f>SUM(B28*'Life Table - Male'!B72,U27)</f>
+      <c r="U28" s="13">
+        <f>SUM(B27*'Life Table - Male'!B72,U27)</f>
         <v>218.71685933949607</v>
       </c>
       <c r="V28" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W28" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X28" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1533541.6729375431</v>
       </c>
       <c r="Y28" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>156.83279048720917</v>
       </c>
     </row>
@@ -61018,8 +61021,8 @@
         <v>26</v>
       </c>
       <c r="B29" s="15">
-        <f t="shared" si="15"/>
-        <v>538.10613343729005</v>
+        <f t="shared" si="13"/>
+        <v>517.46820463979952</v>
       </c>
       <c r="C29" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C28*(1-'Life Table - Male'!B73)</f>
@@ -61093,23 +61096,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U29" s="19">
-        <f>SUM(B29*'Life Table - Male'!B73,U28)</f>
+      <c r="U29" s="13">
+        <f>SUM(B28*'Life Table - Male'!B73,U28)</f>
         <v>232.88357951449962</v>
       </c>
       <c r="V29" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W29" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X29" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2909761.9893410974</v>
       </c>
       <c r="Y29" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>292.72516034379487</v>
       </c>
     </row>
@@ -61118,8 +61121,8 @@
         <v>27</v>
       </c>
       <c r="B30" s="15">
-        <f t="shared" si="15"/>
-        <v>517.46820463979952</v>
+        <f t="shared" si="13"/>
+        <v>496.76170387529118</v>
       </c>
       <c r="C30" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C29*(1-'Life Table - Male'!B74)</f>
@@ -61193,23 +61196,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U30" s="19">
-        <f>SUM(B30*'Life Table - Male'!B74,U29)</f>
+      <c r="U30" s="13">
+        <f>SUM(B29*'Life Table - Male'!B74,U29)</f>
         <v>247.44772213408677</v>
       </c>
       <c r="V30" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W30" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X30" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1376084.3296782987</v>
       </c>
       <c r="Y30" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>136.35920325075972</v>
       </c>
     </row>
@@ -61218,8 +61221,8 @@
         <v>28</v>
       </c>
       <c r="B31" s="15">
-        <f t="shared" si="15"/>
-        <v>496.76170387529118</v>
+        <f t="shared" si="13"/>
+        <v>475.87932344216802</v>
       </c>
       <c r="C31" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C30*(1-'Life Table - Male'!B75)</f>
@@ -61293,23 +61296,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U31" s="19">
-        <f>SUM(B31*'Life Table - Male'!B75,U30)</f>
+      <c r="U31" s="13">
+        <f>SUM(B30*'Life Table - Male'!B75,U30)</f>
         <v>262.50854347217785</v>
       </c>
       <c r="V31" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W31" s="54">
         <v>1.3333333333333333</v>
       </c>
       <c r="X31" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2594568.8864144068</v>
       </c>
       <c r="Y31" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>253.55068556727224</v>
       </c>
     </row>
@@ -61318,8 +61321,8 @@
         <v>29</v>
       </c>
       <c r="B32" s="15">
-        <f t="shared" si="15"/>
-        <v>475.87932344216802</v>
+        <f t="shared" si="13"/>
+        <v>454.91027719114919</v>
       </c>
       <c r="C32" s="27">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C31*(1-'Life Table - Male'!B76)</f>
@@ -61393,23 +61396,23 @@
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="U32" s="19">
-        <f>SUM(B32*'Life Table - Male'!B76,U31)</f>
+      <c r="U32" s="13">
+        <f>SUM(B31*'Life Table - Male'!B76,U31)</f>
         <v>277.96843505284357</v>
       </c>
       <c r="V32" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W32" s="54">
         <v>0.66666666666666663</v>
       </c>
       <c r="X32" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>1219100.6887232629</v>
       </c>
       <c r="Y32" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>117.61864934983674</v>
       </c>
     </row>
@@ -61417,9 +61420,9 @@
       <c r="A33" s="11">
         <v>30</v>
       </c>
-      <c r="B33" s="16">
-        <f t="shared" si="15"/>
-        <v>454.91027719114919</v>
+      <c r="B33" s="166">
+        <f t="shared" si="13"/>
+        <v>433.13079367679597</v>
       </c>
       <c r="C33" s="28">
         <f>(1-SUM(pHealthyStage1,pHealthyStage2,pHealthyStage3))*C32*(1-'Life Table - Male'!B77)</f>
@@ -61494,22 +61497,22 @@
         <v>0</v>
       </c>
       <c r="U33" s="166">
-        <f>SUM(B33*'Life Table - Male'!B77,U32)</f>
+        <f>SUM(B32*'Life Table - Male'!B77,U32)</f>
         <v>294.55218920784694</v>
       </c>
       <c r="V33" s="49">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W33" s="54">
         <v>0.33333333333333331</v>
       </c>
       <c r="X33" s="13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>569971.66125675035</v>
       </c>
       <c r="Y33" s="25">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>54.345318174329805</v>
       </c>
     </row>
